--- a/Pre-Install_Requirements.xlsx
+++ b/Pre-Install_Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23011"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onevmw-my.sharepoint.com/personal/haudah_vmware_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="397" documentId="13_ncr:1_{6AB63D1C-E9DF-4CEC-835B-1ABBFE20F833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6905B5EA-4396-462C-850C-FD81A1245461}"/>
+  <xr:revisionPtr revIDLastSave="451" documentId="13_ncr:1_{6AB63D1C-E9DF-4CEC-835B-1ABBFE20F833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33F0E4E0-6BC2-4DAB-9124-66944E1DB654}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="833" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="833" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="42" r:id="rId1"/>
@@ -22,28 +22,30 @@
     <sheet name="DS-AWCM-API (On-Premises)" sheetId="22" r:id="rId7"/>
     <sheet name="Access (On-Premises)" sheetId="27" r:id="rId8"/>
     <sheet name="Devices on Internet or Wi-Fi" sheetId="10" r:id="rId9"/>
-    <sheet name="ACC  - Access Connector" sheetId="1" r:id="rId10"/>
-    <sheet name="Tunnel &amp; Content Gateway" sheetId="14" r:id="rId11"/>
-    <sheet name="SEG-Powershell" sheetId="6" r:id="rId12"/>
-    <sheet name="ENS" sheetId="33" r:id="rId13"/>
-    <sheet name="Intelligence Connector" sheetId="35" r:id="rId14"/>
-    <sheet name="Memcache" sheetId="36" r:id="rId15"/>
-    <sheet name="Citrix Integration Broker" sheetId="28" r:id="rId16"/>
-    <sheet name="Workspace ONE Assist" sheetId="32" r:id="rId17"/>
-    <sheet name=" Relay Pull Service" sheetId="20" r:id="rId18"/>
+    <sheet name="AirWatch Cloud Connector" sheetId="1" r:id="rId10"/>
+    <sheet name="Access Connector" sheetId="43" r:id="rId11"/>
+    <sheet name="Tunnel &amp; Content Gateway" sheetId="14" r:id="rId12"/>
+    <sheet name="SEG-Powershell" sheetId="6" r:id="rId13"/>
+    <sheet name="ENS" sheetId="33" r:id="rId14"/>
+    <sheet name="Intelligence Connector" sheetId="35" r:id="rId15"/>
+    <sheet name="Memcache" sheetId="36" r:id="rId16"/>
+    <sheet name="Citrix Integration Broker" sheetId="28" r:id="rId17"/>
+    <sheet name="Workspace ONE Assist" sheetId="32" r:id="rId18"/>
+    <sheet name="Relay Pull Service" sheetId="20" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">' Relay Pull Service'!$L$4:$L$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'ACC  - Access Connector'!$L$4:$L$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'Relay Pull Service'!$L$4:$L$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Access (On-Premises)'!$L$4:$L$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Citrix Integration Broker'!$L$4:$L$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Access Connector'!$L$4:$L$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'AirWatch Cloud Connector'!$L$4:$L$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Citrix Integration Broker'!$L$4:$L$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Devices on Internet or Wi-Fi'!$J$5:$J$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'DS-AWCM-API (On-Premises)'!$L$4:$L$67</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'SEG-Powershell'!$L$4:$L$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Tunnel &amp; Content Gateway'!$L$4:$L$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'SEG-Powershell'!$L$4:$L$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Tunnel &amp; Content Gateway'!$L$4:$L$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'UEM Console - DB (On-Premises)'!$L$4:$L$74</definedName>
     <definedName name="AccDNS">'Servers &amp; Environment'!$E$69</definedName>
     <definedName name="ACCDNSIP">'Servers &amp; Environment'!$F$69</definedName>
@@ -151,6 +153,7 @@
     <definedName name="dsip">'Servers &amp; Environment'!$D$64</definedName>
     <definedName name="DSSaaSURL">'Servers &amp; Environment'!$D$11</definedName>
     <definedName name="dsservername">'Servers &amp; Environment'!$C$64</definedName>
+    <definedName name="ENSAPI" localSheetId="10">Table4[#All]</definedName>
     <definedName name="ENSAPI">Table4[#All]</definedName>
     <definedName name="EnsDatabase">'Servers &amp; Environment'!$E$60</definedName>
     <definedName name="EnsDatabaseIp">'Servers &amp; Environment'!$F$60</definedName>
@@ -182,16 +185,18 @@
     <definedName name="memcachednsip">'Servers &amp; Environment'!$F$62</definedName>
     <definedName name="memcacheip">'Servers &amp; Environment'!$D$62</definedName>
     <definedName name="memcacheservername">'Servers &amp; Environment'!$C$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'ACC  - Access Connector'!$B$2:$K$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Access (On-Premises)'!$B$2:$K$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'Citrix Integration Broker'!$B$2:$K$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'Access Connector'!$B$2:$K$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'AirWatch Cloud Connector'!$B$2:$K$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'Citrix Integration Broker'!$B$2:$K$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'DS-AWCM-API (On-Premises)'!$B$2:$K$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'SEG-Powershell'!$B$2:$K$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'Tunnel &amp; Content Gateway'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'SEG-Powershell'!$B$2:$K$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'Tunnel &amp; Content Gateway'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'UEM Console - DB (On-Premises)'!$B$2:$K$74</definedName>
     <definedName name="RadiusPort">'Servers &amp; Environment'!$F$51</definedName>
     <definedName name="RadiusServerIP">'Servers &amp; Environment'!$E$51</definedName>
     <definedName name="RadiusServerName">'Servers &amp; Environment'!$D$51</definedName>
+    <definedName name="Region" localSheetId="10">Table4[Region]</definedName>
     <definedName name="Region">Table4[Region]</definedName>
     <definedName name="RSAPort">'Servers &amp; Environment'!$F$52</definedName>
     <definedName name="RSAServerIP">'Servers &amp; Environment'!$E$52</definedName>
@@ -201,10 +206,13 @@
     <definedName name="SegDNSIp">'Servers &amp; Environment'!$F$71</definedName>
     <definedName name="SegIp">'Servers &amp; Environment'!$D$71</definedName>
     <definedName name="SegServerName">'Servers &amp; Environment'!$C$71</definedName>
+    <definedName name="ServerAccountName" localSheetId="10">Table5[Service Account Name]</definedName>
     <definedName name="ServerAccountName">Table5[Service Account Name]</definedName>
     <definedName name="ServerComp" localSheetId="1">#REF!</definedName>
     <definedName name="ServerComp">#REF!</definedName>
+    <definedName name="ServiceAccountName" localSheetId="10">Table5[Service Account Name]</definedName>
     <definedName name="ServiceAccountName">Table5[Service Account Name]</definedName>
+    <definedName name="ServiceAccountType" localSheetId="10">Table5[Service Account Type]</definedName>
     <definedName name="ServiceAccountType">Table5[Service Account Type]</definedName>
     <definedName name="SMTP_Port">'Servers &amp; Environment'!$F$45</definedName>
     <definedName name="SMTPIp">'Servers &amp; Environment'!$E$45</definedName>
@@ -667,7 +675,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="798">
   <si>
     <t>VMware and Customer Confidential</t>
   </si>
@@ -1304,7 +1312,8 @@
   </si>
   <si>
     <t>-Added fields for auto-prepare of validation appliances
--Removed port 80 from URL has.spserv.microsoft.com as it's no longer active</t>
+-Removed port 80 from URL has.spserv.microsoft.com as it's no longer active
+-Split out worksheets for ACC and Access Connector in favor of uniformity</t>
   </si>
   <si>
     <t>Support (Internal)</t>
@@ -2730,8 +2739,8 @@
   <si>
     <t>*.google.com
 android.com
-google-analytics.com 
-googleusercontent.com
+google-analytics.com
+*.googleusercontent.com
 *gstatic.com
 *gvt1.com
 *gvt2.com
@@ -2758,6 +2767,9 @@
     <t>*notify.windows.com</t>
   </si>
   <si>
+    <t>inference.location.live.net</t>
+  </si>
+  <si>
     <t>ekop.intel.com/ekcertservice</t>
   </si>
   <si>
@@ -2785,74 +2797,18 @@
     <t>For AirWatch simplified enrollment (Auto Discovery) </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">For North America:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">gslb.secb2b.com
+    <t>For North America:
+gslb.secb2b.com
 us-elm.secb2b.com
 us-prod-klm.secb2b.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">For China:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">china-gslb.secb2b.com.cn
+For China:
+china-gslb.secb2b.com.cn
 china-elm.secb2b.com.cn
 china-klm.secb2b.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">For All Other Regions:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gslb.secb2b.com
+For All Other Regions:
+gslb.secb2b.com
 eu-elm.secb2b.com
 eu-prod-klm.secb2b.com</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2870,83 +2826,26 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>For the Americas ( USA, Canada, Brazil, etc.. ):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
- gslb.secb2b.com
+    <t>For the Americas ( USA, Canada, Brazil, etc.. ):
+gslb.secb2b.com
 us-elm.secb2b.com
 us-knox.secb2b.com
 us-prod-klm.secb2b.com
 kaps.secb2b.com
 d28lmkz7f2awiw.cloudfront.net
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>For China:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+For China:
 china-gslb.secb2b.com.cn
 china-elm.secb2b.com.cn
 china-knox.secb2b.com.cn
 ch-prod-klm.secb2b.com
 china-kad.secb2b.com.cn
 bjprodkad.blob.core.chinacloudapi.cn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>All other countries:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+All other countries:
 gslb.secb2b.com
 eu-elm.secb2b.com
 eu-knox.secb2b.com
 eu-prod-klm.secb2b.com
-kaps.secb2b.com d28lmkz7f2awiw.cloudfront.net
-</t>
-    </r>
+kaps.secb2b.com d28lmkz7f2awiw.cloudfront.net</t>
   </si>
   <si>
     <r>
@@ -2970,14 +2869,8 @@
     <t>For Android SSO (Workspace One) when using SaaS deployments</t>
   </si>
   <si>
-    <t>Enterprise Systems Connector
+    <t>AirWatch Cloud Connector
 Pre-Requisites</t>
-  </si>
-  <si>
-    <t>Hardware Requirements - AirWatch Cloud Connector &amp; VMware Access Connector</t>
-  </si>
-  <si>
-    <t>General Requirements - AirWatch Cloud Connector &amp; VMware Access Connector</t>
   </si>
   <si>
     <t>Services accounts for authentication to backend systems</t>
@@ -3009,18 +2902,12 @@
     </r>
   </si>
   <si>
-    <t>Software Requirements - AirWatch Cloud Connector &amp; VMware Access Connector</t>
-  </si>
-  <si>
     <t>Install PowerShell 4.0+ on the server</t>
   </si>
   <si>
     <t>Required for powershell email management</t>
   </si>
   <si>
-    <t>Network Requirements - AirWatch Cloud Connector</t>
-  </si>
-  <si>
     <t>HTTP or HTTPS</t>
   </si>
   <si>
@@ -3051,7 +2938,8 @@
     <t>For Powershell Integration</t>
   </si>
   <si>
-    <t>Network Requirements - VMware Access Connector</t>
+    <t>Access Connector
+Pre-Requisites</t>
   </si>
   <si>
     <t>Default port. This port is configurable.</t>
@@ -3070,9 +2958,6 @@
   </si>
   <si>
     <t>For Windows Clients accessing the connector for Kerberos authentication (443)</t>
-  </si>
-  <si>
-    <t>TCP or UDP</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -3104,9 +2989,6 @@
   </si>
   <si>
     <t xml:space="preserve">Horizon View Connection Server </t>
-  </si>
-  <si>
-    <t>&lt;Horizon View Connection Server&gt;</t>
   </si>
   <si>
     <t>WSONE Access Tenant</t>
@@ -7309,142 +7191,142 @@
   <cellStyles count="136">
     <cellStyle name="Comma" xfId="135" builtinId="3"/>
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="134" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
   </cellStyles>
-  <dxfs count="1074">
+  <dxfs count="1114">
     <dxf>
       <font>
         <color theme="0"/>
@@ -15042,6 +14924,456 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF008000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -20344,7 +20676,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="1073"/>
+      <tableStyleElement type="wholeTable" dxfId="1113"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -20771,14 +21103,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>394573</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>223007</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>135889</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>97789</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20809,6 +21141,71 @@
         <a:xfrm>
           <a:off x="5347573" y="18198465"/>
           <a:ext cx="6464013" cy="2076449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>394573</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>223007</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>31114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75A44D2-52E7-4FA1-9176-383E94BBC417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4718923" y="16795115"/>
+          <a:ext cx="5638684" cy="1971674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20913,73 +21310,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{221B1E98-3C2A-4770-89A6-52ED7693AB12}" name="Table6" displayName="Table6" ref="B1:F5" totalsRowShown="0" headerRowDxfId="1040" dataDxfId="1039">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{221B1E98-3C2A-4770-89A6-52ED7693AB12}" name="Table6" displayName="Table6" ref="B1:F5" totalsRowShown="0" headerRowDxfId="1080" dataDxfId="1079">
   <autoFilter ref="B1:F5" xr:uid="{9B625D1C-5D93-4EBA-9536-97EF38AC8C25}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B19948F3-86D4-4468-AAC5-1D91BDCC91FF}" name="Version" dataDxfId="1038"/>
-    <tableColumn id="2" xr3:uid="{E59A27EB-918F-4808-915D-90ECD4A69697}" name="Date" dataDxfId="1037"/>
-    <tableColumn id="3" xr3:uid="{1B3AAB4A-2408-4D32-9E89-FE75AD9FC0A1}" name="Author" dataDxfId="1036"/>
-    <tableColumn id="4" xr3:uid="{40444797-A683-4565-B069-006853CB4C31}" name="Support ID References" dataDxfId="1035"/>
-    <tableColumn id="5" xr3:uid="{929FCABF-06EC-423E-B205-018CC7CED0A2}" name="Description" dataDxfId="1034"/>
+    <tableColumn id="1" xr3:uid="{B19948F3-86D4-4468-AAC5-1D91BDCC91FF}" name="Version" dataDxfId="1078"/>
+    <tableColumn id="2" xr3:uid="{E59A27EB-918F-4808-915D-90ECD4A69697}" name="Date" dataDxfId="1077"/>
+    <tableColumn id="3" xr3:uid="{1B3AAB4A-2408-4D32-9E89-FE75AD9FC0A1}" name="Author" dataDxfId="1076"/>
+    <tableColumn id="4" xr3:uid="{40444797-A683-4565-B069-006853CB4C31}" name="Support ID References" dataDxfId="1075"/>
+    <tableColumn id="5" xr3:uid="{929FCABF-06EC-423E-B205-018CC7CED0A2}" name="Description" dataDxfId="1074"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DFAE0657-5573-417E-A65B-A1AC74B6F495}" name="Table4" displayName="Table4" ref="A52:C55" totalsRowShown="0" headerRowDxfId="1021" dataDxfId="1020">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DFAE0657-5573-417E-A65B-A1AC74B6F495}" name="Table4" displayName="Table4" ref="A52:C55" totalsRowShown="0" headerRowDxfId="1061" dataDxfId="1060">
   <autoFilter ref="A52:C55" xr:uid="{1050C727-B02C-44CA-9116-B8B3EBEDF63B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EA528362-2FC5-490C-9E98-496C82609F86}" name="Region" dataDxfId="1019"/>
-    <tableColumn id="2" xr3:uid="{B3AC7631-B5A5-4518-BA4E-D732C57398D8}" name="API Endpoint" dataDxfId="1018"/>
-    <tableColumn id="3" xr3:uid="{6211793E-49BB-478D-9EEA-BE33AE72516B}" name="Column1" dataDxfId="1017"/>
+    <tableColumn id="1" xr3:uid="{EA528362-2FC5-490C-9E98-496C82609F86}" name="Region" dataDxfId="1059"/>
+    <tableColumn id="2" xr3:uid="{B3AC7631-B5A5-4518-BA4E-D732C57398D8}" name="API Endpoint" dataDxfId="1058"/>
+    <tableColumn id="3" xr3:uid="{6211793E-49BB-478D-9EEA-BE33AE72516B}" name="Column1" dataDxfId="1057"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B954C8E7-8031-4857-9541-6B3B10683AA0}" name="Table5" displayName="Table5" ref="A57:B64" totalsRowShown="0" headerRowDxfId="1016" dataDxfId="1015" tableBorderDxfId="1014">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B954C8E7-8031-4857-9541-6B3B10683AA0}" name="Table5" displayName="Table5" ref="A57:B64" totalsRowShown="0" headerRowDxfId="1056" dataDxfId="1055" tableBorderDxfId="1054">
   <autoFilter ref="A57:B64" xr:uid="{5766218B-0E29-457C-A554-DBEAD6373419}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E6579A87-324F-48E2-8EC2-F9AF3C6F6D9B}" name="Service Account Type" dataDxfId="1013"/>
-    <tableColumn id="2" xr3:uid="{8AD5F107-8E11-4AEB-9C0E-36B001E57D6A}" name="Service Account Name" dataDxfId="1012"/>
+    <tableColumn id="1" xr3:uid="{E6579A87-324F-48E2-8EC2-F9AF3C6F6D9B}" name="Service Account Type" dataDxfId="1053"/>
+    <tableColumn id="2" xr3:uid="{8AD5F107-8E11-4AEB-9C0E-36B001E57D6A}" name="Service Account Name" dataDxfId="1052"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3649E711-1DDA-4F90-BD8C-12C8B6F1660A}" name="OS" displayName="OS" ref="A67:E88" totalsRowShown="0" headerRowDxfId="1011" dataDxfId="1010" headerRowBorderDxfId="1008" tableBorderDxfId="1009">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3649E711-1DDA-4F90-BD8C-12C8B6F1660A}" name="OS" displayName="OS" ref="A67:E88" totalsRowShown="0" headerRowDxfId="1051" dataDxfId="1050" headerRowBorderDxfId="1048" tableBorderDxfId="1049">
   <autoFilter ref="A67:E88" xr:uid="{17372F08-A8B3-4BE9-B535-D598234EF62D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6D667106-4FF7-44D4-BCA8-EC554F80F67B}" name="Server" dataDxfId="1007"/>
-    <tableColumn id="2" xr3:uid="{3EFBEE53-D692-40BC-B3FE-89430C5F9C72}" name="Operating System / Package" dataDxfId="1006" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{7E5A6561-9B39-4587-B8AA-259F683C06E2}" name="Last Updated" dataDxfId="1005"/>
-    <tableColumn id="4" xr3:uid="{6DC6E621-0C6E-4D5C-BA63-AD40EB4E92F1}" name="Version" dataDxfId="1004"/>
-    <tableColumn id="5" xr3:uid="{F5EBC1CC-0342-4EDA-98B4-96A3B3D1127F}" name="Link" dataDxfId="1003"/>
+    <tableColumn id="1" xr3:uid="{6D667106-4FF7-44D4-BCA8-EC554F80F67B}" name="Server" dataDxfId="1047"/>
+    <tableColumn id="2" xr3:uid="{3EFBEE53-D692-40BC-B3FE-89430C5F9C72}" name="Operating System / Package" dataDxfId="1046" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{7E5A6561-9B39-4587-B8AA-259F683C06E2}" name="Last Updated" dataDxfId="1045"/>
+    <tableColumn id="4" xr3:uid="{6DC6E621-0C6E-4D5C-BA63-AD40EB4E92F1}" name="Version" dataDxfId="1044"/>
+    <tableColumn id="5" xr3:uid="{F5EBC1CC-0342-4EDA-98B4-96A3B3D1127F}" name="Link" dataDxfId="1043"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A751FBD7-7320-41A4-B9B5-9A10E9C1BC3F}" name="Sizing" displayName="Sizing" ref="A1:M98" totalsRowShown="0" headerRowDxfId="983" dataDxfId="982">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A751FBD7-7320-41A4-B9B5-9A10E9C1BC3F}" name="Sizing" displayName="Sizing" ref="A1:M98" totalsRowShown="0" headerRowDxfId="1023" dataDxfId="1022">
   <autoFilter ref="A1:M98" xr:uid="{E83EB607-C175-42CA-8E84-ADF642D5011E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F083FA38-7045-4F4B-AFE6-B4388AA09488}" name="Services" dataDxfId="981"/>
-    <tableColumn id="2" xr3:uid="{F758CDAA-AF3B-4160-9BAD-86205C743F00}" name="# of Devices" dataDxfId="980" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{70D0DDCF-0ACE-4201-9644-D296B8436B0B}" name="# Servers" dataDxfId="979"/>
-    <tableColumn id="4" xr3:uid="{7F9B916E-EADC-4B51-AA08-BBCD72A5228F}" name="CPU Cores (Intel Processor Required)" dataDxfId="978"/>
-    <tableColumn id="5" xr3:uid="{B7779051-072D-4C2B-B78A-510AF67F75CD}" name="RAM" dataDxfId="977"/>
-    <tableColumn id="6" xr3:uid="{F2408314-111E-4615-9C70-892BA90232D2}" name="Disc Space (GB)" dataDxfId="976"/>
-    <tableColumn id="7" xr3:uid="{AB3B4D1A-7434-4A69-A8EE-38B33AAC9627}" name="Trans Log Size (GB)" dataDxfId="975"/>
-    <tableColumn id="8" xr3:uid="{4E308BD4-3431-4326-8F39-15DC212ABE76}" name="Tem DB (GB)" dataDxfId="974"/>
-    <tableColumn id="9" xr3:uid="{EA78D5E8-BF56-4E61-BC89-FA0067AFE80B}" name="Avg IOPS" dataDxfId="973"/>
-    <tableColumn id="10" xr3:uid="{01542568-761A-4364-9BBD-D04E3DC3810B}" name="Peak IOPS" dataDxfId="972"/>
-    <tableColumn id="11" xr3:uid="{D08D07D5-490A-42E2-AF87-E68DA0888A2C}" name="Last Updated" dataDxfId="971"/>
-    <tableColumn id="12" xr3:uid="{6CA62E66-F97E-45D0-B42A-0F20A99B0C04}" name="Version" dataDxfId="970"/>
-    <tableColumn id="13" xr3:uid="{B0DDE043-0C5B-4452-98EB-5DF98D1EF2DA}" name="Link" dataDxfId="969"/>
+    <tableColumn id="1" xr3:uid="{F083FA38-7045-4F4B-AFE6-B4388AA09488}" name="Services" dataDxfId="1021"/>
+    <tableColumn id="2" xr3:uid="{F758CDAA-AF3B-4160-9BAD-86205C743F00}" name="# of Devices" dataDxfId="1020" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{70D0DDCF-0ACE-4201-9644-D296B8436B0B}" name="# Servers" dataDxfId="1019"/>
+    <tableColumn id="4" xr3:uid="{7F9B916E-EADC-4B51-AA08-BBCD72A5228F}" name="CPU Cores (Intel Processor Required)" dataDxfId="1018"/>
+    <tableColumn id="5" xr3:uid="{B7779051-072D-4C2B-B78A-510AF67F75CD}" name="RAM" dataDxfId="1017"/>
+    <tableColumn id="6" xr3:uid="{F2408314-111E-4615-9C70-892BA90232D2}" name="Disc Space (GB)" dataDxfId="1016"/>
+    <tableColumn id="7" xr3:uid="{AB3B4D1A-7434-4A69-A8EE-38B33AAC9627}" name="Trans Log Size (GB)" dataDxfId="1015"/>
+    <tableColumn id="8" xr3:uid="{4E308BD4-3431-4326-8F39-15DC212ABE76}" name="Tem DB (GB)" dataDxfId="1014"/>
+    <tableColumn id="9" xr3:uid="{EA78D5E8-BF56-4E61-BC89-FA0067AFE80B}" name="Avg IOPS" dataDxfId="1013"/>
+    <tableColumn id="10" xr3:uid="{01542568-761A-4364-9BBD-D04E3DC3810B}" name="Peak IOPS" dataDxfId="1012"/>
+    <tableColumn id="11" xr3:uid="{D08D07D5-490A-42E2-AF87-E68DA0888A2C}" name="Last Updated" dataDxfId="1011"/>
+    <tableColumn id="12" xr3:uid="{6CA62E66-F97E-45D0-B42A-0F20A99B0C04}" name="Version" dataDxfId="1010"/>
+    <tableColumn id="13" xr3:uid="{B0DDE043-0C5B-4452-98EB-5DF98D1EF2DA}" name="Link" dataDxfId="1009"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21359,10 +21756,10 @@
     <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:L46"/>
+  <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="13.9"/>
@@ -21384,7 +21781,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="42" customHeight="1">
       <c r="B2" s="341" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C2" s="342"/>
       <c r="D2" s="342"/>
@@ -21399,7 +21796,7 @@
     </row>
     <row r="3" spans="2:12" ht="16.149999999999999" thickBot="1">
       <c r="B3" s="296" t="s">
-        <v>505</v>
+        <v>270</v>
       </c>
       <c r="C3" s="297"/>
       <c r="D3" s="297"/>
@@ -21469,7 +21866,7 @@
     </row>
     <row r="7" spans="2:12" ht="30.95" customHeight="1">
       <c r="B7" s="296" t="s">
-        <v>506</v>
+        <v>439</v>
       </c>
       <c r="C7" s="297"/>
       <c r="D7" s="297"/>
@@ -21525,7 +21922,7 @@
         <v>275</v>
       </c>
       <c r="C10" s="300" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D10" s="301"/>
       <c r="E10" s="301"/>
@@ -21533,7 +21930,7 @@
       <c r="G10" s="301"/>
       <c r="H10" s="302"/>
       <c r="I10" s="310" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J10" s="311"/>
       <c r="K10" s="311"/>
@@ -21550,7 +21947,7 @@
     </row>
     <row r="12" spans="2:12" ht="22.35" customHeight="1">
       <c r="B12" s="296" t="s">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="C12" s="297"/>
       <c r="D12" s="297"/>
@@ -21607,7 +22004,7 @@
         <v>275</v>
       </c>
       <c r="C15" s="300" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D15" s="301"/>
       <c r="E15" s="301"/>
@@ -21615,7 +22012,7 @@
       <c r="G15" s="301"/>
       <c r="H15" s="302"/>
       <c r="I15" s="310" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J15" s="311"/>
       <c r="K15" s="311"/>
@@ -21659,7 +22056,7 @@
     </row>
     <row r="18" spans="2:12" ht="25.35" customHeight="1">
       <c r="B18" s="296" t="s">
-        <v>512</v>
+        <v>316</v>
       </c>
       <c r="C18" s="297"/>
       <c r="D18" s="297"/>
@@ -21722,7 +22119,7 @@
       </c>
       <c r="L20" s="117"/>
     </row>
-    <row r="21" spans="2:12" ht="14.25">
+    <row r="21" spans="2:12" ht="41.45">
       <c r="B21" s="40" t="s">
         <v>275</v>
       </c>
@@ -21768,7 +22165,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="14.25">
+    <row r="22" spans="2:12" ht="41.45">
       <c r="B22" s="40" t="s">
         <v>275</v>
       </c>
@@ -21799,10 +22196,10 @@
         <v>192.168.1.30</v>
       </c>
       <c r="I22" s="127" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J22" s="84" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K22" s="286" t="str">
         <f>"Telnet from VESC to Console on port or once installed:
@@ -21814,7 +22211,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="14.25">
+    <row r="23" spans="2:12" ht="27.6">
       <c r="B23" s="40" t="s">
         <v>275</v>
       </c>
@@ -21851,13 +22248,13 @@
         <v>443</v>
       </c>
       <c r="K23" s="129" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="L23" s="117">
         <v>6.4</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="14.25">
+    <row r="24" spans="2:12" ht="27.6">
       <c r="B24" s="40" t="s">
         <v>275</v>
       </c>
@@ -21887,15 +22284,16 @@
         <v>80</v>
       </c>
       <c r="K24" s="129" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L24" s="117">
         <v>9.1</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="14.25">
-      <c r="B25" s="40" t="s">
-        <v>275</v>
+    <row r="25" spans="2:12" ht="27.6">
+      <c r="B25" s="40" t="str">
+        <f>IF(UsingAD="Yes", "Pending", "N/A")</f>
+        <v>Pending</v>
       </c>
       <c r="C25" s="124" t="str">
         <f t="shared" si="0"/>
@@ -21924,7 +22322,7 @@
         <v>192.168.77.211</v>
       </c>
       <c r="I25" s="127" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J25" s="127">
         <f>LDAP_Port</f>
@@ -21933,9 +22331,10 @@
       <c r="K25" s="129"/>
       <c r="L25" s="117"/>
     </row>
-    <row r="26" spans="2:12" ht="14.25">
-      <c r="B26" s="40" t="s">
-        <v>275</v>
+    <row r="26" spans="2:12" ht="27.6">
+      <c r="B26" s="40" t="str">
+        <f>IF(UsingSMTP="Yes", "Pending", "N/A")</f>
+        <v>Pending</v>
       </c>
       <c r="C26" s="124" t="str">
         <f t="shared" si="0"/>
@@ -21974,9 +22373,10 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="14.25">
-      <c r="B27" s="40" t="s">
-        <v>275</v>
+    <row r="27" spans="2:12" ht="27.6">
+      <c r="B27" s="40" t="str">
+        <f>IF(UsingPKI="Yes", "Pending", "N/A")</f>
+        <v>Pending</v>
       </c>
       <c r="C27" s="124" t="str">
         <f t="shared" si="0"/>
@@ -21993,7 +22393,7 @@
 192.168.1.60</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G27" s="24" t="str">
         <f>InternalPKIServerName</f>
@@ -22004,17 +22404,17 @@
         <v>#.#.#.#</v>
       </c>
       <c r="I27" s="84" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J27" s="84" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K27" s="285"/>
       <c r="L27" s="117">
         <v>6.4</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="28.5">
+    <row r="28" spans="2:12" ht="27.6">
       <c r="B28" s="40" t="s">
         <v>275</v>
       </c>
@@ -22033,7 +22433,7 @@
 192.168.1.60</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G28" s="24" t="str">
         <f>InternalPKIServerName</f>
@@ -22044,17 +22444,17 @@
         <v>#.#.#.#</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J28" s="84" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K28" s="285"/>
       <c r="L28" s="117">
         <v>6.4</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="14.25">
+    <row r="29" spans="2:12" ht="27.6">
       <c r="B29" s="40" t="s">
         <v>275</v>
       </c>
@@ -22093,608 +22493,15 @@
         <v>443</v>
       </c>
       <c r="K29" s="285" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="L29" s="123">
         <v>6.4</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="25.35" customHeight="1">
-      <c r="B31" s="296" t="s">
-        <v>523</v>
-      </c>
-      <c r="C31" s="297"/>
-      <c r="D31" s="297"/>
-      <c r="E31" s="297"/>
-      <c r="F31" s="297"/>
-      <c r="G31" s="297"/>
-      <c r="H31" s="297"/>
-      <c r="I31" s="297"/>
-      <c r="J31" s="297"/>
-      <c r="K31" s="297"/>
-      <c r="L31" s="340"/>
-    </row>
-    <row r="32" spans="2:12" ht="24.6" customHeight="1">
-      <c r="B32" s="52"/>
-      <c r="C32" s="303" t="s">
-        <v>317</v>
-      </c>
-      <c r="D32" s="304"/>
-      <c r="E32" s="304"/>
-      <c r="F32" s="305" t="s">
-        <v>318</v>
-      </c>
-      <c r="G32" s="306"/>
-      <c r="H32" s="306"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="117"/>
-    </row>
-    <row r="33" spans="2:12">
-      <c r="B33" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="C33" s="56" t="s">
-        <v>319</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="E33" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>322</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="H33" s="58" t="s">
-        <v>324</v>
-      </c>
-      <c r="I33" s="59" t="s">
-        <v>325</v>
-      </c>
-      <c r="J33" s="59" t="s">
-        <v>326</v>
-      </c>
-      <c r="K33" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="L33" s="117"/>
-    </row>
-    <row r="34" spans="2:12" ht="14.25">
-      <c r="B34" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C34" s="124" t="str">
-        <f>ComIDMConnector</f>
-        <v>Access Connector</v>
-      </c>
-      <c r="D34" s="124" t="str">
-        <f>AccessConnectorServername</f>
-        <v>idmcon1.haramco.xyz
-idmcon2.haramco.xyz</v>
-      </c>
-      <c r="E34" s="124" t="str">
-        <f>AccessConnectorIp</f>
-        <v>192.168.1.61
-192.168.1.62</v>
-      </c>
-      <c r="F34" s="24" t="str">
-        <f>ComAccess</f>
-        <v>Workspace ONE Access</v>
-      </c>
-      <c r="G34" s="24" t="str">
-        <f>AccessDNS</f>
-        <v>access.haramco.xyz</v>
-      </c>
-      <c r="H34" s="24" t="str">
-        <f>AccessDnsIp</f>
-        <v>192.168.1.30</v>
-      </c>
-      <c r="I34" s="127" t="s">
-        <v>330</v>
-      </c>
-      <c r="J34" s="84">
-        <v>443</v>
-      </c>
-      <c r="K34" s="286" t="s">
-        <v>524</v>
-      </c>
-      <c r="L34" s="117">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="14.25">
-      <c r="B35" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C35" s="124" t="str">
-        <f>ComBrowser</f>
-        <v>Browser (for admin access)</v>
-      </c>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="24" t="str">
-        <f>ComIDMConnector</f>
-        <v>Access Connector</v>
-      </c>
-      <c r="G35" s="24" t="str">
-        <f>AccessConnectorServername</f>
-        <v>idmcon1.haramco.xyz
-idmcon2.haramco.xyz</v>
-      </c>
-      <c r="H35" s="24" t="str">
-        <f>AccessConnectorIp</f>
-        <v>192.168.1.61
-192.168.1.62</v>
-      </c>
-      <c r="I35" s="127" t="s">
-        <v>330</v>
-      </c>
-      <c r="J35" s="114" t="s">
-        <v>525</v>
-      </c>
-      <c r="K35" s="286" t="s">
-        <v>526</v>
-      </c>
-      <c r="L35" s="117">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="28.5">
-      <c r="B36" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" s="124" t="s">
-        <v>527</v>
-      </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="24" t="str">
-        <f>ComIDMConnector</f>
-        <v>Access Connector</v>
-      </c>
-      <c r="G36" s="24" t="str">
-        <f>AccessConnectorServername</f>
-        <v>idmcon1.haramco.xyz
-idmcon2.haramco.xyz</v>
-      </c>
-      <c r="H36" s="24" t="str">
-        <f>AccessConnectorIp</f>
-        <v>192.168.1.61
-192.168.1.62</v>
-      </c>
-      <c r="I36" s="127" t="s">
-        <v>330</v>
-      </c>
-      <c r="J36" s="114" t="s">
-        <v>528</v>
-      </c>
-      <c r="K36" s="286" t="s">
-        <v>529</v>
-      </c>
-      <c r="L36" s="117">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="14.25">
-      <c r="B37" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C37" s="124" t="s">
-        <v>527</v>
-      </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="24" t="str">
-        <f>ComIDMConnector</f>
-        <v>Access Connector</v>
-      </c>
-      <c r="G37" s="24" t="str">
-        <f>AccessConnectorServername</f>
-        <v>idmcon1.haramco.xyz
-idmcon2.haramco.xyz</v>
-      </c>
-      <c r="H37" s="24" t="str">
-        <f>AccessConnectorIp</f>
-        <v>192.168.1.61
-192.168.1.62</v>
-      </c>
-      <c r="I37" s="128" t="s">
-        <v>345</v>
-      </c>
-      <c r="J37" s="111">
-        <v>80</v>
-      </c>
-      <c r="K37" s="129"/>
-      <c r="L37" s="117">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="14.25">
-      <c r="B38" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C38" s="124" t="str">
-        <f t="shared" ref="C38:C44" si="3">ComIDMConnector</f>
-        <v>Access Connector</v>
-      </c>
-      <c r="D38" s="124" t="str">
-        <f t="shared" ref="D38:D44" si="4">AccessConnectorServername</f>
-        <v>idmcon1.haramco.xyz
-idmcon2.haramco.xyz</v>
-      </c>
-      <c r="E38" s="124" t="str">
-        <f t="shared" ref="E38:E44" si="5">AccessConnectorIp</f>
-        <v>192.168.1.61
-192.168.1.62</v>
-      </c>
-      <c r="F38" s="24" t="str">
-        <f>ComLDAP</f>
-        <v>Domain Controller / AD</v>
-      </c>
-      <c r="G38" s="24" t="str">
-        <f>ADServerName</f>
-        <v>haramco.xyz</v>
-      </c>
-      <c r="H38" s="24" t="str">
-        <f>ADIp</f>
-        <v>192.168.77.211</v>
-      </c>
-      <c r="I38" s="127" t="s">
-        <v>517</v>
-      </c>
-      <c r="J38" s="127">
-        <f>LDAP_Port</f>
-        <v>389</v>
-      </c>
-      <c r="K38" s="129"/>
-      <c r="L38" s="117">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="42.75">
-      <c r="B39" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C39" s="124" t="str">
-        <f t="shared" si="3"/>
-        <v>Access Connector</v>
-      </c>
-      <c r="D39" s="124" t="str">
-        <f t="shared" si="4"/>
-        <v>idmcon1.haramco.xyz
-idmcon2.haramco.xyz</v>
-      </c>
-      <c r="E39" s="124" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.61
-192.168.1.62</v>
-      </c>
-      <c r="F39" s="24" t="str">
-        <f>ComDNS</f>
-        <v>DNS Server</v>
-      </c>
-      <c r="G39" s="24" t="str">
-        <f>DNSServerName</f>
-        <v>dns.fqdn.com</v>
-      </c>
-      <c r="H39" s="24" t="str">
-        <f>DNSIP</f>
-        <v>192.168.1.31</v>
-      </c>
-      <c r="I39" s="84" t="s">
-        <v>530</v>
-      </c>
-      <c r="J39" s="84">
-        <v>53</v>
-      </c>
-      <c r="K39" s="286" t="s">
-        <v>531</v>
-      </c>
-      <c r="L39" s="117">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="14.25">
-      <c r="B40" s="40" t="str">
-        <f>IF(UsingRadius="Yes", "Pending", "N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="C40" s="124" t="str">
-        <f t="shared" si="3"/>
-        <v>Access Connector</v>
-      </c>
-      <c r="D40" s="124" t="str">
-        <f t="shared" si="4"/>
-        <v>idmcon1.haramco.xyz
-idmcon2.haramco.xyz</v>
-      </c>
-      <c r="E40" s="124" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.61
-192.168.1.62</v>
-      </c>
-      <c r="F40" s="24" t="str">
-        <f>ComRadius</f>
-        <v>RADIUS Server</v>
-      </c>
-      <c r="G40" s="24">
-        <f>RadiusServerName</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="24">
-        <f>RadiusServerIP</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="84" t="s">
-        <v>530</v>
-      </c>
-      <c r="J40" s="84">
-        <f>RadiusPort</f>
-        <v>0</v>
-      </c>
-      <c r="K40" s="285" t="s">
-        <v>532</v>
-      </c>
-      <c r="L40" s="117">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="14.25">
-      <c r="B41" s="40" t="str">
-        <f>IF(UsingRSA="Yes", "Pending", "N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="C41" s="124" t="str">
-        <f t="shared" si="3"/>
-        <v>Access Connector</v>
-      </c>
-      <c r="D41" s="124" t="str">
-        <f t="shared" si="4"/>
-        <v>idmcon1.haramco.xyz
-idmcon2.haramco.xyz</v>
-      </c>
-      <c r="E41" s="124" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.61
-192.168.1.62</v>
-      </c>
-      <c r="F41" s="24" t="str">
-        <f>ComRSA</f>
-        <v>RSA SecurID System</v>
-      </c>
-      <c r="G41" s="24">
-        <f>RSAServerName</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="24">
-        <f>RSAServerIP</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="84" t="s">
-        <v>530</v>
-      </c>
-      <c r="J41" s="127">
-        <v>5500</v>
-      </c>
-      <c r="K41" s="285" t="s">
-        <v>533</v>
-      </c>
-      <c r="L41" s="117">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="28.5">
-      <c r="B42" s="40" t="str">
-        <f>IF(UsingHorizon="Yes", "Pending", "N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="C42" s="124" t="str">
-        <f t="shared" si="3"/>
-        <v>Access Connector</v>
-      </c>
-      <c r="D42" s="124" t="str">
-        <f t="shared" si="4"/>
-        <v>idmcon1.haramco.xyz
-idmcon2.haramco.xyz</v>
-      </c>
-      <c r="E42" s="124" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.61
-192.168.1.62</v>
-      </c>
-      <c r="F42" s="24" t="str">
-        <f>ComHorizon</f>
-        <v>Horizon Connection Servers</v>
-      </c>
-      <c r="G42" s="24">
-        <f>hzncnservername</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="24">
-        <f>hzncnip</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="84" t="s">
-        <v>534</v>
-      </c>
-      <c r="J42" s="84" t="s">
-        <v>535</v>
-      </c>
-      <c r="K42" s="285" t="s">
-        <v>536</v>
-      </c>
-      <c r="L42" s="117">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="142.5">
-      <c r="B43" s="40" t="str">
-        <f>IF(UsingIntegrationBroker="Yes", "Pending", "N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="C43" s="124" t="str">
-        <f t="shared" si="3"/>
-        <v>Access Connector</v>
-      </c>
-      <c r="D43" s="124" t="str">
-        <f t="shared" si="4"/>
-        <v>idmcon1.haramco.xyz
-idmcon2.haramco.xyz</v>
-      </c>
-      <c r="E43" s="124" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.61
-192.168.1.62</v>
-      </c>
-      <c r="F43" s="24" t="str">
-        <f>ComCIB</f>
-        <v>Citrix Integration Broker</v>
-      </c>
-      <c r="G43" s="24" t="str">
-        <f>CibDNS</f>
-        <v>N/A</v>
-      </c>
-      <c r="H43" s="24" t="str">
-        <f>CibDNSIp</f>
-        <v>N/A</v>
-      </c>
-      <c r="I43" s="84"/>
-      <c r="J43" s="84" t="s">
-        <v>340</v>
-      </c>
-      <c r="K43" s="286" t="s">
-        <v>537</v>
-      </c>
-      <c r="L43" s="117">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="14.25">
-      <c r="B44" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C44" s="124" t="str">
-        <f t="shared" si="3"/>
-        <v>Access Connector</v>
-      </c>
-      <c r="D44" s="124" t="str">
-        <f t="shared" si="4"/>
-        <v>idmcon1.haramco.xyz
-idmcon2.haramco.xyz</v>
-      </c>
-      <c r="E44" s="124" t="str">
-        <f t="shared" si="5"/>
-        <v>192.168.1.61
-192.168.1.62</v>
-      </c>
-      <c r="F44" s="24" t="str">
-        <f>ComSyslog</f>
-        <v>Syslog Server</v>
-      </c>
-      <c r="G44" s="24" t="str">
-        <f>syslogservername</f>
-        <v>syslog.haramco.xyz</v>
-      </c>
-      <c r="H44" s="24" t="str">
-        <f>syslogip</f>
-        <v>192.168.1.170</v>
-      </c>
-      <c r="I44" s="84" t="s">
-        <v>462</v>
-      </c>
-      <c r="J44" s="127">
-        <v>514</v>
-      </c>
-      <c r="K44" s="285" t="s">
-        <v>538</v>
-      </c>
-      <c r="L44" s="117">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="42.75">
-      <c r="B45" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="106" t="str">
-        <f t="shared" ref="C45" si="6">ComAccess</f>
-        <v>Workspace ONE Access</v>
-      </c>
-      <c r="D45" s="124" t="str">
-        <f t="shared" ref="D45" si="7">AccessServerName</f>
-        <v>access1.haramco.xyz</v>
-      </c>
-      <c r="E45" s="124" t="str">
-        <f t="shared" ref="E45" si="8">AccessIP</f>
-        <v>192.168.1.84</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45" s="84" t="s">
-        <v>352</v>
-      </c>
-      <c r="J45" s="84">
-        <v>445</v>
-      </c>
-      <c r="K45" s="286" t="s">
-        <v>479</v>
-      </c>
-      <c r="L45" s="101">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="28.5">
-      <c r="B46" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C46" s="106" t="s">
-        <v>539</v>
-      </c>
-      <c r="D46" s="124" t="s">
-        <v>540</v>
-      </c>
-      <c r="E46" s="124" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="G46" s="24" t="str">
-        <f>AccessDNS</f>
-        <v>access.haramco.xyz</v>
-      </c>
-      <c r="H46" s="24" t="str">
-        <f>AccessDnsIp</f>
-        <v>192.168.1.30</v>
-      </c>
-      <c r="I46" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="J46" s="127">
-        <v>443</v>
-      </c>
-      <c r="K46" s="285" t="s">
-        <v>542</v>
-      </c>
-      <c r="L46" s="117">
-        <v>9.1</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="L4:L29" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
-  <mergeCells count="31">
+  <mergeCells count="28">
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
@@ -22703,8 +22510,6 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C13:E13"/>
@@ -22716,7 +22521,6 @@
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B31:L31"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I15:K15"/>
@@ -22728,344 +22532,200 @@
     <mergeCell ref="I13:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="B6 B17">
-    <cfRule type="cellIs" dxfId="702" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="190" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="701" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="191" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="192" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3 B9 L21:L23 B21:B23 B25:B29 L25:L29 L11 L13:L15">
-    <cfRule type="cellIs" dxfId="699" priority="163" operator="equal">
+  <conditionalFormatting sqref="B3 B9 L21:L23 B21:B23 B25:B26 L25:L29 L11 L13:L15 B28:B29">
+    <cfRule type="cellIs" dxfId="739" priority="165" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="166" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="697" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="163" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="164" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="695" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="159" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="160" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="693" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="151" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="152" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="691" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="155" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="156" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="689" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="149" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="150" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="687" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="147" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="148" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B16">
-    <cfRule type="cellIs" dxfId="685" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="143" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="144" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 L17">
-    <cfRule type="cellIs" dxfId="683" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="138" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="139" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="140" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="680" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="119" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="120" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="678" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="115" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="116" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14 L16">
-    <cfRule type="cellIs" dxfId="676" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="111" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="112" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="674" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="101" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="102" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="672" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="95" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="96" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:L9 L16:L17 L19:L21">
-    <cfRule type="cellIs" dxfId="670" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="91" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="92" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34 B36:B39">
-    <cfRule type="cellIs" dxfId="668" priority="81" operator="equal">
+  <conditionalFormatting sqref="B24 L24">
+    <cfRule type="cellIs" dxfId="708" priority="71" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="72" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="666" priority="77" operator="equal">
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="706" priority="65" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="66" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="664" priority="75" operator="equal">
+  <conditionalFormatting sqref="L10">
+    <cfRule type="cellIs" dxfId="704" priority="63" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="64" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="662" priority="73" operator="equal">
+  <conditionalFormatting sqref="L10">
+    <cfRule type="cellIs" dxfId="702" priority="61" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="62" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:L33">
-    <cfRule type="cellIs" dxfId="660" priority="71" operator="equal">
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="700" priority="17" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="18" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24 L24">
-    <cfRule type="cellIs" dxfId="658" priority="69" operator="equal">
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="698" priority="15" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="657" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="cellIs" dxfId="656" priority="67" operator="equal">
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="696" priority="13" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="14" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34 L36:L39 L41:L43">
-    <cfRule type="cellIs" dxfId="654" priority="65" operator="equal">
+  <conditionalFormatting sqref="B27">
+    <cfRule type="cellIs" dxfId="694" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="66" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="652" priority="63" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="64" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="650" priority="61" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="62" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="648" priority="59" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="60" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="646" priority="35" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="36" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L35">
-    <cfRule type="cellIs" dxfId="644" priority="33" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="643" priority="34" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="cellIs" dxfId="642" priority="27" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="28" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44">
-    <cfRule type="cellIs" dxfId="640" priority="25" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="26" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B46">
-    <cfRule type="cellIs" dxfId="638" priority="23" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="24" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
-    <cfRule type="cellIs" dxfId="636" priority="21" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="22" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L40">
-    <cfRule type="cellIs" dxfId="634" priority="17" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="18" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" dxfId="632" priority="9" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="10" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="630" priority="15" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="629" priority="16" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="628" priority="13" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="14" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="626" priority="11" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="12" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="624" priority="7" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="8" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="cellIs" dxfId="622" priority="5" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="6" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="cellIs" dxfId="620" priority="3" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="4" operator="equal">
-      <formula>"Pending"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45 L45">
-    <cfRule type="cellIs" dxfId="618" priority="1" operator="equal">
-      <formula>"Complete"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23073,7 +22733,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B17" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Open, N/A, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B14:B16 B21:B29 B9:B10 B34:B46" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B14:B16 B9:B10 B21:B29" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Pending, Complete, N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23084,6 +22744,1254 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB92267-B90E-4317-9E1E-25DEC6FCFEE8}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="13.9"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="44" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="58.28515625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="27.28515625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="42" customHeight="1">
+      <c r="B2" s="341" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
+      <c r="H2" s="342"/>
+      <c r="I2" s="342"/>
+      <c r="J2" s="342"/>
+      <c r="K2" s="342"/>
+      <c r="L2" s="343"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.6">
+      <c r="B3" s="296" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="297"/>
+      <c r="L3" s="340"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="277" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="312" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="313"/>
+      <c r="I4" s="312" t="s">
+        <v>273</v>
+      </c>
+      <c r="J4" s="313"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="51" customHeight="1">
+      <c r="B5" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="300" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="302"/>
+      <c r="I5" s="300" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5" s="301"/>
+      <c r="K5" s="301"/>
+      <c r="L5" s="117">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="118"/>
+    </row>
+    <row r="7" spans="2:12" ht="30.95" customHeight="1">
+      <c r="B7" s="296" t="s">
+        <v>439</v>
+      </c>
+      <c r="C7" s="297"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="297"/>
+      <c r="H7" s="297"/>
+      <c r="I7" s="297"/>
+      <c r="J7" s="297"/>
+      <c r="K7" s="297"/>
+      <c r="L7" s="340"/>
+    </row>
+    <row r="8" spans="2:12" ht="30.95" customHeight="1">
+      <c r="B8" s="277" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="312" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="313"/>
+      <c r="E8" s="313"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="313"/>
+      <c r="H8" s="313"/>
+      <c r="I8" s="312" t="s">
+        <v>273</v>
+      </c>
+      <c r="J8" s="313"/>
+      <c r="K8" s="314"/>
+      <c r="L8" s="117"/>
+    </row>
+    <row r="9" spans="2:12" ht="30.95" customHeight="1">
+      <c r="B9" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="319" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="320"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="321"/>
+      <c r="I9" s="310"/>
+      <c r="J9" s="311"/>
+      <c r="K9" s="311"/>
+      <c r="L9" s="117">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="89.1" customHeight="1">
+      <c r="B10" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="300" t="s">
+        <v>506</v>
+      </c>
+      <c r="D10" s="301"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
+      <c r="G10" s="301"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="310" t="s">
+        <v>507</v>
+      </c>
+      <c r="J10" s="311"/>
+      <c r="K10" s="311"/>
+      <c r="L10" s="117">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="L11" s="117"/>
+    </row>
+    <row r="12" spans="2:12" ht="22.35" customHeight="1">
+      <c r="B12" s="296" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" s="297"/>
+      <c r="D12" s="297"/>
+      <c r="E12" s="297"/>
+      <c r="F12" s="297"/>
+      <c r="G12" s="297"/>
+      <c r="H12" s="297"/>
+      <c r="I12" s="297"/>
+      <c r="J12" s="297"/>
+      <c r="K12" s="297"/>
+      <c r="L12" s="340"/>
+    </row>
+    <row r="13" spans="2:12" ht="15" customHeight="1">
+      <c r="B13" s="277" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="312" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="312" t="s">
+        <v>273</v>
+      </c>
+      <c r="J13" s="313"/>
+      <c r="K13" s="314"/>
+      <c r="L13" s="117"/>
+    </row>
+    <row r="14" spans="2:12" ht="15" customHeight="1">
+      <c r="B14" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="300" t="str">
+        <f>ACCOS</f>
+        <v>Windows Server 2008 R2 SP1, Windows Server 2012 R2, or Windows Server 2016</v>
+      </c>
+      <c r="D14" s="301"/>
+      <c r="E14" s="301"/>
+      <c r="F14" s="301"/>
+      <c r="G14" s="301"/>
+      <c r="H14" s="302"/>
+      <c r="I14" s="310"/>
+      <c r="J14" s="311"/>
+      <c r="K14" s="311"/>
+      <c r="L14" s="117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1">
+      <c r="B15" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="300" t="s">
+        <v>508</v>
+      </c>
+      <c r="D15" s="301"/>
+      <c r="E15" s="301"/>
+      <c r="F15" s="301"/>
+      <c r="G15" s="301"/>
+      <c r="H15" s="302"/>
+      <c r="I15" s="310" t="s">
+        <v>509</v>
+      </c>
+      <c r="J15" s="311"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="117">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="19.5" customHeight="1">
+      <c r="B16" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="300" t="s">
+        <v>414</v>
+      </c>
+      <c r="D16" s="301"/>
+      <c r="E16" s="301"/>
+      <c r="F16" s="301"/>
+      <c r="G16" s="301"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="310" t="s">
+        <v>301</v>
+      </c>
+      <c r="J16" s="311"/>
+      <c r="K16" s="311"/>
+      <c r="L16" s="117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="95"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="117"/>
+    </row>
+    <row r="18" spans="2:12" ht="25.35" customHeight="1">
+      <c r="B18" s="296" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="297"/>
+      <c r="D18" s="297"/>
+      <c r="E18" s="297"/>
+      <c r="F18" s="297"/>
+      <c r="G18" s="297"/>
+      <c r="H18" s="297"/>
+      <c r="I18" s="297"/>
+      <c r="J18" s="297"/>
+      <c r="K18" s="297"/>
+      <c r="L18" s="340"/>
+    </row>
+    <row r="19" spans="2:12" ht="24.6" customHeight="1">
+      <c r="B19" s="52"/>
+      <c r="C19" s="303" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="304"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="305" t="s">
+        <v>318</v>
+      </c>
+      <c r="G19" s="306"/>
+      <c r="H19" s="306"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="117"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="H20" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="J20" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="K20" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="117"/>
+    </row>
+    <row r="21" spans="2:12" ht="27.6">
+      <c r="B21" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="124" t="str">
+        <f>ComIDMConnector</f>
+        <v>Access Connector</v>
+      </c>
+      <c r="D21" s="124" t="str">
+        <f>AccessConnectorServername</f>
+        <v>idmcon1.haramco.xyz
+idmcon2.haramco.xyz</v>
+      </c>
+      <c r="E21" s="124" t="str">
+        <f>AccessConnectorIp</f>
+        <v>192.168.1.61
+192.168.1.62</v>
+      </c>
+      <c r="F21" s="24" t="str">
+        <f>ComAccess</f>
+        <v>Workspace ONE Access</v>
+      </c>
+      <c r="G21" s="24" t="str">
+        <f>AccessDNS</f>
+        <v>access.haramco.xyz</v>
+      </c>
+      <c r="H21" s="24" t="str">
+        <f>AccessDnsIp</f>
+        <v>192.168.1.30</v>
+      </c>
+      <c r="I21" s="127" t="s">
+        <v>330</v>
+      </c>
+      <c r="J21" s="84">
+        <v>443</v>
+      </c>
+      <c r="K21" s="286" t="s">
+        <v>521</v>
+      </c>
+      <c r="L21" s="117">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="27.6">
+      <c r="B22" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="124" t="str">
+        <f>ComBrowser</f>
+        <v>Browser (for admin access)</v>
+      </c>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="24" t="str">
+        <f>ComIDMConnector</f>
+        <v>Access Connector</v>
+      </c>
+      <c r="G22" s="24" t="str">
+        <f>AccessConnectorServername</f>
+        <v>idmcon1.haramco.xyz
+idmcon2.haramco.xyz</v>
+      </c>
+      <c r="H22" s="24" t="str">
+        <f>AccessConnectorIp</f>
+        <v>192.168.1.61
+192.168.1.62</v>
+      </c>
+      <c r="I22" s="127" t="s">
+        <v>330</v>
+      </c>
+      <c r="J22" s="114" t="s">
+        <v>522</v>
+      </c>
+      <c r="K22" s="286" t="s">
+        <v>523</v>
+      </c>
+      <c r="L22" s="117">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="27.6">
+      <c r="B23" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="124" t="s">
+        <v>524</v>
+      </c>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="24" t="str">
+        <f>ComIDMConnector</f>
+        <v>Access Connector</v>
+      </c>
+      <c r="G23" s="24" t="str">
+        <f>AccessConnectorServername</f>
+        <v>idmcon1.haramco.xyz
+idmcon2.haramco.xyz</v>
+      </c>
+      <c r="H23" s="24" t="str">
+        <f>AccessConnectorIp</f>
+        <v>192.168.1.61
+192.168.1.62</v>
+      </c>
+      <c r="I23" s="127" t="s">
+        <v>330</v>
+      </c>
+      <c r="J23" s="114" t="s">
+        <v>525</v>
+      </c>
+      <c r="K23" s="286" t="s">
+        <v>526</v>
+      </c>
+      <c r="L23" s="117">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="27.6">
+      <c r="B24" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="124" t="s">
+        <v>524</v>
+      </c>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="24" t="str">
+        <f>ComIDMConnector</f>
+        <v>Access Connector</v>
+      </c>
+      <c r="G24" s="24" t="str">
+        <f>AccessConnectorServername</f>
+        <v>idmcon1.haramco.xyz
+idmcon2.haramco.xyz</v>
+      </c>
+      <c r="H24" s="24" t="str">
+        <f>AccessConnectorIp</f>
+        <v>192.168.1.61
+192.168.1.62</v>
+      </c>
+      <c r="I24" s="128" t="s">
+        <v>345</v>
+      </c>
+      <c r="J24" s="111">
+        <v>80</v>
+      </c>
+      <c r="K24" s="129"/>
+      <c r="L24" s="117">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="27.6">
+      <c r="B25" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="124" t="str">
+        <f t="shared" ref="C25:C31" si="0">ComIDMConnector</f>
+        <v>Access Connector</v>
+      </c>
+      <c r="D25" s="124" t="str">
+        <f t="shared" ref="D25:D31" si="1">AccessConnectorServername</f>
+        <v>idmcon1.haramco.xyz
+idmcon2.haramco.xyz</v>
+      </c>
+      <c r="E25" s="124" t="str">
+        <f t="shared" ref="E25:E31" si="2">AccessConnectorIp</f>
+        <v>192.168.1.61
+192.168.1.62</v>
+      </c>
+      <c r="F25" s="24" t="str">
+        <f>ComLDAP</f>
+        <v>Domain Controller / AD</v>
+      </c>
+      <c r="G25" s="24" t="str">
+        <f>ADServerName</f>
+        <v>haramco.xyz</v>
+      </c>
+      <c r="H25" s="24" t="str">
+        <f>ADIp</f>
+        <v>192.168.77.211</v>
+      </c>
+      <c r="I25" s="127" t="s">
+        <v>514</v>
+      </c>
+      <c r="J25" s="127">
+        <f>LDAP_Port</f>
+        <v>389</v>
+      </c>
+      <c r="K25" s="129"/>
+      <c r="L25" s="117">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="41.45">
+      <c r="B26" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Access Connector</v>
+      </c>
+      <c r="D26" s="124" t="str">
+        <f t="shared" si="1"/>
+        <v>idmcon1.haramco.xyz
+idmcon2.haramco.xyz</v>
+      </c>
+      <c r="E26" s="124" t="str">
+        <f t="shared" si="2"/>
+        <v>192.168.1.61
+192.168.1.62</v>
+      </c>
+      <c r="F26" s="24" t="str">
+        <f>ComDNS</f>
+        <v>DNS Server</v>
+      </c>
+      <c r="G26" s="24" t="str">
+        <f>DNSServerName</f>
+        <v>dns.fqdn.com</v>
+      </c>
+      <c r="H26" s="24" t="str">
+        <f>DNSIP</f>
+        <v>192.168.1.31</v>
+      </c>
+      <c r="I26" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="J26" s="84">
+        <v>53</v>
+      </c>
+      <c r="K26" s="286" t="s">
+        <v>527</v>
+      </c>
+      <c r="L26" s="117">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="27.6">
+      <c r="B27" s="40" t="str">
+        <f>IF(UsingRadius="Yes", "Pending", "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="C27" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Access Connector</v>
+      </c>
+      <c r="D27" s="124" t="str">
+        <f t="shared" si="1"/>
+        <v>idmcon1.haramco.xyz
+idmcon2.haramco.xyz</v>
+      </c>
+      <c r="E27" s="124" t="str">
+        <f t="shared" si="2"/>
+        <v>192.168.1.61
+192.168.1.62</v>
+      </c>
+      <c r="F27" s="24" t="str">
+        <f>ComRadius</f>
+        <v>RADIUS Server</v>
+      </c>
+      <c r="G27" s="24">
+        <f>RadiusServerName</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="24">
+        <f>RadiusServerIP</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="J27" s="84">
+        <f>RadiusPort</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="285" t="s">
+        <v>528</v>
+      </c>
+      <c r="L27" s="117">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="27.6">
+      <c r="B28" s="40" t="str">
+        <f>IF(UsingRSA="Yes", "Pending", "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="C28" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Access Connector</v>
+      </c>
+      <c r="D28" s="124" t="str">
+        <f t="shared" si="1"/>
+        <v>idmcon1.haramco.xyz
+idmcon2.haramco.xyz</v>
+      </c>
+      <c r="E28" s="124" t="str">
+        <f t="shared" si="2"/>
+        <v>192.168.1.61
+192.168.1.62</v>
+      </c>
+      <c r="F28" s="24" t="str">
+        <f>ComRSA</f>
+        <v>RSA SecurID System</v>
+      </c>
+      <c r="G28" s="24">
+        <f>RSAServerName</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="24">
+        <f>RSAServerIP</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="J28" s="127">
+        <v>5500</v>
+      </c>
+      <c r="K28" s="285" t="s">
+        <v>529</v>
+      </c>
+      <c r="L28" s="117">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="27.6">
+      <c r="B29" s="40" t="str">
+        <f>IF(UsingHorizon="Yes", "Pending", "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="C29" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Access Connector</v>
+      </c>
+      <c r="D29" s="124" t="str">
+        <f t="shared" si="1"/>
+        <v>idmcon1.haramco.xyz
+idmcon2.haramco.xyz</v>
+      </c>
+      <c r="E29" s="124" t="str">
+        <f t="shared" si="2"/>
+        <v>192.168.1.61
+192.168.1.62</v>
+      </c>
+      <c r="F29" s="24" t="str">
+        <f>ComHorizon</f>
+        <v>Horizon Connection Servers</v>
+      </c>
+      <c r="G29" s="24">
+        <f>hzncnservername</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="24">
+        <f>hzncnip</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="84" t="s">
+        <v>530</v>
+      </c>
+      <c r="J29" s="84" t="s">
+        <v>531</v>
+      </c>
+      <c r="K29" s="285" t="s">
+        <v>532</v>
+      </c>
+      <c r="L29" s="117">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="138">
+      <c r="B30" s="40" t="str">
+        <f>IF(UsingIntegrationBroker="Yes", "Pending", "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="C30" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Access Connector</v>
+      </c>
+      <c r="D30" s="124" t="str">
+        <f t="shared" si="1"/>
+        <v>idmcon1.haramco.xyz
+idmcon2.haramco.xyz</v>
+      </c>
+      <c r="E30" s="124" t="str">
+        <f t="shared" si="2"/>
+        <v>192.168.1.61
+192.168.1.62</v>
+      </c>
+      <c r="F30" s="24" t="str">
+        <f>ComCIB</f>
+        <v>Citrix Integration Broker</v>
+      </c>
+      <c r="G30" s="24" t="str">
+        <f>CibDNS</f>
+        <v>N/A</v>
+      </c>
+      <c r="H30" s="24" t="str">
+        <f>CibDNSIp</f>
+        <v>N/A</v>
+      </c>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84" t="s">
+        <v>340</v>
+      </c>
+      <c r="K30" s="286" t="s">
+        <v>533</v>
+      </c>
+      <c r="L30" s="117">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="27.6">
+      <c r="B31" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="124" t="str">
+        <f t="shared" si="0"/>
+        <v>Access Connector</v>
+      </c>
+      <c r="D31" s="124" t="str">
+        <f t="shared" si="1"/>
+        <v>idmcon1.haramco.xyz
+idmcon2.haramco.xyz</v>
+      </c>
+      <c r="E31" s="124" t="str">
+        <f t="shared" si="2"/>
+        <v>192.168.1.61
+192.168.1.62</v>
+      </c>
+      <c r="F31" s="24" t="str">
+        <f>ComSyslog</f>
+        <v>Syslog Server</v>
+      </c>
+      <c r="G31" s="24" t="str">
+        <f>syslogservername</f>
+        <v>syslog.haramco.xyz</v>
+      </c>
+      <c r="H31" s="24" t="str">
+        <f>syslogip</f>
+        <v>192.168.1.170</v>
+      </c>
+      <c r="I31" s="84" t="s">
+        <v>462</v>
+      </c>
+      <c r="J31" s="127">
+        <v>514</v>
+      </c>
+      <c r="K31" s="285" t="s">
+        <v>534</v>
+      </c>
+      <c r="L31" s="117">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="41.45">
+      <c r="B32" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="106" t="str">
+        <f t="shared" ref="C32" si="3">ComAccess</f>
+        <v>Workspace ONE Access</v>
+      </c>
+      <c r="D32" s="124" t="str">
+        <f t="shared" ref="D32" si="4">AccessServerName</f>
+        <v>access1.haramco.xyz</v>
+      </c>
+      <c r="E32" s="124" t="str">
+        <f t="shared" ref="E32" si="5">AccessIP</f>
+        <v>192.168.1.84</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="J32" s="84">
+        <v>445</v>
+      </c>
+      <c r="K32" s="286" t="s">
+        <v>479</v>
+      </c>
+      <c r="L32" s="101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="27.6">
+      <c r="B33" s="40" t="str">
+        <f>IF(UsingHorizon="Yes", "Pending", "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="C33" s="106" t="s">
+        <v>535</v>
+      </c>
+      <c r="D33" s="106">
+        <f>hzncnservername</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="106">
+        <f>hzncnip</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="G33" s="24" t="str">
+        <f>AccessDNS</f>
+        <v>access.haramco.xyz</v>
+      </c>
+      <c r="H33" s="24" t="str">
+        <f>AccessDnsIp</f>
+        <v>192.168.1.30</v>
+      </c>
+      <c r="I33" s="84" t="s">
+        <v>330</v>
+      </c>
+      <c r="J33" s="127">
+        <v>443</v>
+      </c>
+      <c r="K33" s="285" t="s">
+        <v>537</v>
+      </c>
+      <c r="L33" s="117">
+        <v>9.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="L4:L17" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <mergeCells count="28">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:K16"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B6 B17">
+    <cfRule type="cellIs" dxfId="692" priority="86" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="691" priority="87" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="690" priority="88" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3 B9 L11 L13:L15">
+    <cfRule type="cellIs" dxfId="689" priority="84" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="688" priority="85" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="687" priority="82" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="686" priority="83" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="685" priority="80" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="684" priority="81" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="683" priority="78" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="682" priority="79" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="681" priority="72" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="680" priority="73" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B16">
+    <cfRule type="cellIs" dxfId="679" priority="70" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="678" priority="71" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6 L17">
+    <cfRule type="cellIs" dxfId="677" priority="67" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="676" priority="68" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="675" priority="69" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="cellIs" dxfId="674" priority="63" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="673" priority="64" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14 L16">
+    <cfRule type="cellIs" dxfId="672" priority="61" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="671" priority="62" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="cellIs" dxfId="670" priority="59" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="669" priority="60" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" dxfId="668" priority="57" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="667" priority="58" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L9 L16:L17">
+    <cfRule type="cellIs" dxfId="666" priority="55" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="665" priority="56" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21 B23:B26">
+    <cfRule type="cellIs" dxfId="664" priority="53" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="663" priority="54" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="662" priority="51" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="661" priority="52" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="cellIs" dxfId="660" priority="49" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="659" priority="50" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="cellIs" dxfId="658" priority="47" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="657" priority="48" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L20">
+    <cfRule type="cellIs" dxfId="656" priority="45" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="655" priority="46" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="cellIs" dxfId="654" priority="41" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="653" priority="42" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21 L23:L26 L28:L30">
+    <cfRule type="cellIs" dxfId="652" priority="39" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="651" priority="40" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="650" priority="37" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="649" priority="38" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="cellIs" dxfId="648" priority="35" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="647" priority="36" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="cellIs" dxfId="646" priority="33" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="645" priority="34" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="644" priority="31" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="643" priority="32" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="642" priority="29" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="641" priority="30" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="cellIs" dxfId="640" priority="27" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="639" priority="28" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="cellIs" dxfId="638" priority="25" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="637" priority="26" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="cellIs" dxfId="636" priority="23" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="635" priority="24" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule type="cellIs" dxfId="634" priority="21" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="633" priority="22" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="632" priority="19" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="631" priority="20" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="630" priority="11" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="629" priority="12" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="628" priority="17" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="627" priority="18" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="626" priority="15" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="625" priority="16" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="cellIs" dxfId="624" priority="9" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="623" priority="10" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="cellIs" dxfId="622" priority="7" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="621" priority="8" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="cellIs" dxfId="620" priority="5" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="619" priority="6" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32 L32">
+    <cfRule type="cellIs" dxfId="618" priority="3" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="617" priority="4" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5 B14:B16 B21:B33 B9:B10" xr:uid="{05AA99DA-93F4-41CE-9607-A9A93D483BE6}">
+      <formula1>"Pending, Complete, N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B17" xr:uid="{1086584A-4720-4734-943D-C395F3E941D2}">
+      <formula1>"Open, N/A, Complete"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="76" orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -23091,8 +23999,8 @@
   </sheetPr>
   <dimension ref="B2:L114"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView showGridLines="0" topLeftCell="A42" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="13.9" outlineLevelRow="1"/>
@@ -23114,7 +24022,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="35.25" customHeight="1">
       <c r="B2" s="323" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C2" s="323"/>
       <c r="D2" s="323"/>
@@ -23129,7 +24037,7 @@
     </row>
     <row r="3" spans="2:12" ht="16.149999999999999" thickBot="1">
       <c r="B3" s="317" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C3" s="318"/>
       <c r="D3" s="318"/>
@@ -23187,7 +24095,7 @@
         <v>275</v>
       </c>
       <c r="C6" s="333" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D6" s="333"/>
       <c r="E6" s="333"/>
@@ -23195,7 +24103,7 @@
       <c r="G6" s="333"/>
       <c r="H6" s="333"/>
       <c r="I6" s="310" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="J6" s="311"/>
       <c r="K6" s="311"/>
@@ -23208,7 +24116,7 @@
         <v>275</v>
       </c>
       <c r="C7" s="333" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D7" s="333"/>
       <c r="E7" s="333"/>
@@ -23216,7 +24124,7 @@
       <c r="G7" s="333"/>
       <c r="H7" s="333"/>
       <c r="I7" s="310" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="J7" s="311"/>
       <c r="K7" s="311"/>
@@ -23229,7 +24137,7 @@
         <v>275</v>
       </c>
       <c r="C8" s="310" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D8" s="311"/>
       <c r="E8" s="311"/>
@@ -23237,7 +24145,7 @@
       <c r="G8" s="311"/>
       <c r="H8" s="332"/>
       <c r="I8" s="310" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="J8" s="311"/>
       <c r="K8" s="311"/>
@@ -23306,7 +24214,7 @@
         <v>275</v>
       </c>
       <c r="C13" s="310" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D13" s="301"/>
       <c r="E13" s="301"/>
@@ -23314,7 +24222,7 @@
       <c r="G13" s="301"/>
       <c r="H13" s="302"/>
       <c r="I13" s="310" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="J13" s="311"/>
       <c r="K13" s="311"/>
@@ -23327,7 +24235,7 @@
         <v>275</v>
       </c>
       <c r="C14" s="310" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D14" s="301"/>
       <c r="E14" s="301"/>
@@ -23335,7 +24243,7 @@
       <c r="G14" s="301"/>
       <c r="H14" s="302"/>
       <c r="I14" s="310" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="J14" s="311"/>
       <c r="K14" s="311"/>
@@ -23345,7 +24253,7 @@
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1">
       <c r="B16" s="136" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -23420,7 +24328,7 @@
     </row>
     <row r="20" spans="2:12" ht="18.95" customHeight="1">
       <c r="B20" s="140" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C20" s="141"/>
       <c r="D20" s="141"/>
@@ -23457,13 +24365,13 @@
         <v>192.168.1.30</v>
       </c>
       <c r="I21" s="127" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="J21" s="84">
         <v>8443</v>
       </c>
       <c r="K21" s="286" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L21" s="153">
         <v>8</v>
@@ -23499,7 +24407,7 @@
         <v>2020</v>
       </c>
       <c r="K22" s="286" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L22" s="153">
         <v>8</v>
@@ -23535,7 +24443,7 @@
         <v>443</v>
       </c>
       <c r="K23" s="286" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L23" s="153">
         <v>8.3000000000000007</v>
@@ -23577,7 +24485,7 @@
         <v>443</v>
       </c>
       <c r="K24" s="286" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L24" s="153">
         <v>8.3000000000000007</v>
@@ -23619,7 +24527,7 @@
         <v>443</v>
       </c>
       <c r="K25" s="286" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L25" s="153">
         <v>8.3000000000000007</v>
@@ -23661,7 +24569,7 @@
         <v>2020</v>
       </c>
       <c r="K26" s="286" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L26" s="153"/>
     </row>
@@ -23860,13 +24768,13 @@
       <c r="G31" s="61"/>
       <c r="H31" s="61"/>
       <c r="I31" s="127" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J31" s="84" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="K31" s="286" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L31" s="153">
         <v>8</v>
@@ -23897,13 +24805,13 @@
       <c r="G32" s="61"/>
       <c r="H32" s="61"/>
       <c r="I32" s="127" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="K32" s="286" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L32" s="153">
         <v>8</v>
@@ -23941,7 +24849,7 @@
         <v>9443</v>
       </c>
       <c r="K33" s="84" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="L33" s="154">
         <v>9</v>
@@ -23979,7 +24887,7 @@
         <v>9443</v>
       </c>
       <c r="K34" s="84" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="L34" s="154">
         <v>9</v>
@@ -23987,7 +24895,7 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="140" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C35" s="143"/>
       <c r="D35" s="143"/>
@@ -24024,13 +24932,13 @@
         <v>192.168.1.30</v>
       </c>
       <c r="I36" s="127" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="J36" s="84">
         <v>8443</v>
       </c>
       <c r="K36" s="286" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L36" s="153">
         <v>8</v>
@@ -24066,7 +24974,7 @@
         <v>443</v>
       </c>
       <c r="K37" s="286" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L37" s="153">
         <v>8.3000000000000007</v>
@@ -24096,13 +25004,13 @@
         <v>192.168.1.30</v>
       </c>
       <c r="I38" s="127" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="J38" s="84">
         <v>2020</v>
       </c>
       <c r="K38" s="286" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L38" s="153">
         <v>8</v>
@@ -24144,7 +25052,7 @@
         <v>2020</v>
       </c>
       <c r="K39" s="286" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="L39" s="153"/>
     </row>
@@ -24266,7 +25174,7 @@
         <v>2010</v>
       </c>
       <c r="K42" s="286" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L42" s="153">
         <v>8</v>
@@ -24310,7 +25218,7 @@
         <v>8443</v>
       </c>
       <c r="K43" s="286" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L43" s="153">
         <v>8</v>
@@ -24553,13 +25461,13 @@
       <c r="G49" s="138"/>
       <c r="H49" s="138"/>
       <c r="I49" s="150" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J49" s="151" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="K49" s="152" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L49" s="155">
         <v>8</v>
@@ -24760,13 +25668,13 @@
       <c r="G54" s="138"/>
       <c r="H54" s="138"/>
       <c r="I54" s="150" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="J54" s="151" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="K54" s="286" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L54" s="155">
         <v>8</v>
@@ -24804,7 +25712,7 @@
         <v>9443</v>
       </c>
       <c r="K55" s="84" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="L55" s="154">
         <v>9</v>
@@ -24842,7 +25750,7 @@
         <v>9443</v>
       </c>
       <c r="K56" s="84" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="L56" s="154">
         <v>9</v>
@@ -24881,7 +25789,7 @@
     </row>
     <row r="61" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="258" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C61" s="257"/>
       <c r="D61" s="257"/>
@@ -24933,7 +25841,7 @@
         <v>275</v>
       </c>
       <c r="C64" s="300" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D64" s="301"/>
       <c r="E64" s="301"/>
@@ -24941,7 +25849,7 @@
       <c r="G64" s="301"/>
       <c r="H64" s="302"/>
       <c r="I64" s="310" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="J64" s="311"/>
       <c r="K64" s="311"/>
@@ -24954,7 +25862,7 @@
         <v>275</v>
       </c>
       <c r="C65" s="300" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D65" s="301"/>
       <c r="E65" s="301"/>
@@ -24962,7 +25870,7 @@
       <c r="G65" s="301"/>
       <c r="H65" s="302"/>
       <c r="I65" s="310" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="J65" s="311"/>
       <c r="K65" s="311"/>
@@ -24975,7 +25883,7 @@
         <v>275</v>
       </c>
       <c r="C66" s="300" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D66" s="301"/>
       <c r="E66" s="301"/>
@@ -24983,7 +25891,7 @@
       <c r="G66" s="301"/>
       <c r="H66" s="302"/>
       <c r="I66" s="310" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="J66" s="311"/>
       <c r="K66" s="311"/>
@@ -24996,7 +25904,7 @@
         <v>275</v>
       </c>
       <c r="C67" s="300" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D67" s="301"/>
       <c r="E67" s="301"/>
@@ -25012,7 +25920,7 @@
     </row>
     <row r="68" spans="2:12" hidden="1" outlineLevel="1">
       <c r="B68" s="99" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C68" s="100"/>
       <c r="D68" s="100"/>
@@ -25049,7 +25957,7 @@
         <v>275</v>
       </c>
       <c r="C70" s="300" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D70" s="301"/>
       <c r="E70" s="301"/>
@@ -25057,7 +25965,7 @@
       <c r="G70" s="301"/>
       <c r="H70" s="302"/>
       <c r="I70" s="310" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="J70" s="311"/>
       <c r="K70" s="311"/>
@@ -25070,7 +25978,7 @@
         <v>275</v>
       </c>
       <c r="C71" s="300" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D71" s="301"/>
       <c r="E71" s="301"/>
@@ -25078,7 +25986,7 @@
       <c r="G71" s="301"/>
       <c r="H71" s="302"/>
       <c r="I71" s="310" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="J71" s="311"/>
       <c r="K71" s="311"/>
@@ -25089,7 +25997,7 @@
         <v>275</v>
       </c>
       <c r="C72" s="300" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D72" s="301"/>
       <c r="E72" s="301"/>
@@ -25097,7 +26005,7 @@
       <c r="G72" s="301"/>
       <c r="H72" s="302"/>
       <c r="I72" s="310" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="J72" s="311"/>
       <c r="K72" s="311"/>
@@ -25119,7 +26027,7 @@
     </row>
     <row r="75" spans="2:12">
       <c r="B75" s="258" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C75" s="257"/>
       <c r="D75" s="257"/>
@@ -25198,7 +26106,7 @@
       <c r="G79" s="301"/>
       <c r="H79" s="302"/>
       <c r="I79" s="310" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="J79" s="311"/>
       <c r="K79" s="331"/>
@@ -25232,7 +26140,7 @@
         <v>275</v>
       </c>
       <c r="C81" s="300" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D81" s="301"/>
       <c r="E81" s="301"/>
@@ -25251,7 +26159,7 @@
         <v>275</v>
       </c>
       <c r="C82" s="300" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D82" s="301"/>
       <c r="E82" s="301"/>
@@ -25259,7 +26167,7 @@
       <c r="G82" s="301"/>
       <c r="H82" s="302"/>
       <c r="I82" s="310" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="J82" s="311"/>
       <c r="K82" s="331"/>
@@ -25272,7 +26180,7 @@
         <v>275</v>
       </c>
       <c r="C83" s="300" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D83" s="301"/>
       <c r="E83" s="301"/>
@@ -25280,7 +26188,7 @@
       <c r="G83" s="301"/>
       <c r="H83" s="302"/>
       <c r="I83" s="310" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="J83" s="311"/>
       <c r="K83" s="331"/>
@@ -25293,7 +26201,7 @@
         <v>275</v>
       </c>
       <c r="C84" s="300" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D84" s="301"/>
       <c r="E84" s="301"/>
@@ -25301,7 +26209,7 @@
       <c r="G84" s="301"/>
       <c r="H84" s="302"/>
       <c r="I84" s="310" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="J84" s="311"/>
       <c r="K84" s="311"/>
@@ -26081,7 +26989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="3" tint="-0.499984740745262"/>
@@ -26089,8 +26997,8 @@
   </sheetPr>
   <dimension ref="B2:L71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="13.9" outlineLevelRow="2"/>
@@ -26112,7 +27020,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="46.5" customHeight="1">
       <c r="B2" s="315" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C2" s="316"/>
       <c r="D2" s="316"/>
@@ -26166,7 +27074,7 @@
         <v>275</v>
       </c>
       <c r="C5" s="310" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D5" s="311"/>
       <c r="E5" s="311"/>
@@ -26197,7 +27105,7 @@
     </row>
     <row r="7" spans="2:12" ht="21" customHeight="1" outlineLevel="1">
       <c r="B7" s="317" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C7" s="318"/>
       <c r="D7" s="318"/>
@@ -26234,7 +27142,7 @@
         <v>275</v>
       </c>
       <c r="C9" s="300" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D9" s="301"/>
       <c r="E9" s="301"/>
@@ -26253,7 +27161,7 @@
         <v>275</v>
       </c>
       <c r="C10" s="300" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D10" s="301"/>
       <c r="E10" s="301"/>
@@ -26272,7 +27180,7 @@
         <v>275</v>
       </c>
       <c r="C11" s="300" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D11" s="301"/>
       <c r="E11" s="301"/>
@@ -26280,7 +27188,7 @@
       <c r="G11" s="301"/>
       <c r="H11" s="302"/>
       <c r="I11" s="310" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="J11" s="311"/>
       <c r="K11" s="331"/>
@@ -26293,7 +27201,7 @@
         <v>275</v>
       </c>
       <c r="C12" s="300" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D12" s="301"/>
       <c r="E12" s="301"/>
@@ -26301,7 +27209,7 @@
       <c r="G12" s="301"/>
       <c r="H12" s="302"/>
       <c r="I12" s="310" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="J12" s="311"/>
       <c r="K12" s="331"/>
@@ -26314,7 +27222,7 @@
         <v>275</v>
       </c>
       <c r="C13" s="300" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D13" s="301"/>
       <c r="E13" s="301"/>
@@ -26322,7 +27230,7 @@
       <c r="G13" s="301"/>
       <c r="H13" s="302"/>
       <c r="I13" s="310" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="J13" s="311"/>
       <c r="K13" s="331"/>
@@ -26338,7 +27246,7 @@
     </row>
     <row r="15" spans="2:12" ht="24.95" customHeight="1" outlineLevel="1">
       <c r="B15" s="317" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C15" s="318"/>
       <c r="D15" s="318"/>
@@ -26375,7 +27283,7 @@
         <v>275</v>
       </c>
       <c r="C17" s="310" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D17" s="301"/>
       <c r="E17" s="301"/>
@@ -26383,7 +27291,7 @@
       <c r="G17" s="301"/>
       <c r="H17" s="302"/>
       <c r="I17" s="310" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="J17" s="311"/>
       <c r="K17" s="311"/>
@@ -26396,7 +27304,7 @@
         <v>275</v>
       </c>
       <c r="C18" s="310" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D18" s="301"/>
       <c r="E18" s="301"/>
@@ -26404,7 +27312,7 @@
       <c r="G18" s="301"/>
       <c r="H18" s="302"/>
       <c r="I18" s="310" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="J18" s="311"/>
       <c r="K18" s="311"/>
@@ -26420,7 +27328,7 @@
     </row>
     <row r="20" spans="2:12" ht="24" customHeight="1" outlineLevel="1">
       <c r="B20" s="317" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C20" s="318"/>
       <c r="D20" s="318"/>
@@ -26457,7 +27365,7 @@
         <v>275</v>
       </c>
       <c r="C22" s="275" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D22" s="274"/>
       <c r="E22" s="274"/>
@@ -26465,7 +27373,7 @@
       <c r="G22" s="274"/>
       <c r="H22" s="276"/>
       <c r="I22" s="272" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="J22" s="273"/>
       <c r="K22" s="283"/>
@@ -26478,7 +27386,7 @@
         <v>275</v>
       </c>
       <c r="C23" s="275" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D23" s="274"/>
       <c r="E23" s="274"/>
@@ -26497,7 +27405,7 @@
         <v>275</v>
       </c>
       <c r="C24" s="300" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D24" s="301"/>
       <c r="E24" s="301"/>
@@ -26505,7 +27413,7 @@
       <c r="G24" s="301"/>
       <c r="H24" s="302"/>
       <c r="I24" s="310" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J24" s="311"/>
       <c r="K24" s="311"/>
@@ -26528,7 +27436,7 @@
     </row>
     <row r="26" spans="2:12" ht="24" customHeight="1" outlineLevel="1">
       <c r="B26" s="317" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C26" s="318"/>
       <c r="D26" s="318"/>
@@ -26573,7 +27481,7 @@
       <c r="G28" s="301"/>
       <c r="H28" s="302"/>
       <c r="I28" s="310" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="J28" s="311"/>
       <c r="K28" s="331"/>
@@ -26594,7 +27502,7 @@
       <c r="G29" s="274"/>
       <c r="H29" s="276"/>
       <c r="I29" s="310" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J29" s="311"/>
       <c r="K29" s="331"/>
@@ -26634,7 +27542,7 @@
       <c r="G31" s="301"/>
       <c r="H31" s="302"/>
       <c r="I31" s="310" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="J31" s="311"/>
       <c r="K31" s="331"/>
@@ -26647,7 +27555,7 @@
         <v>275</v>
       </c>
       <c r="C32" s="300" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D32" s="301"/>
       <c r="E32" s="301"/>
@@ -26655,7 +27563,7 @@
       <c r="G32" s="301"/>
       <c r="H32" s="302"/>
       <c r="I32" s="310" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="J32" s="311"/>
       <c r="K32" s="331"/>
@@ -26770,7 +27678,7 @@
         <v>443</v>
       </c>
       <c r="K37" s="286" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="L37" s="166">
         <v>6.4</v>
@@ -26891,7 +27799,7 @@
         <v>2001</v>
       </c>
       <c r="K40" s="285" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="L40" s="166">
         <v>8.1999999999999993</v>
@@ -26977,13 +27885,13 @@
 192.168.1.65</v>
       </c>
       <c r="I42" s="127" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="J42" s="84" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="K42" s="152" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L42" s="166">
         <v>6.4</v>
@@ -27050,7 +27958,7 @@
         <v>275</v>
       </c>
       <c r="C44" s="106" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D44" s="61"/>
       <c r="E44" s="61"/>
@@ -27075,7 +27983,7 @@
         <v>9443</v>
       </c>
       <c r="K44" s="84" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="L44" s="154">
         <v>19.07</v>
@@ -27083,7 +27991,7 @@
     </row>
     <row r="46" spans="2:12" ht="48.95" customHeight="1">
       <c r="B46" s="315" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C46" s="316"/>
       <c r="D46" s="316"/>
@@ -27098,7 +28006,7 @@
     </row>
     <row r="47" spans="2:12" ht="30" hidden="1" customHeight="1" outlineLevel="2">
       <c r="B47" s="317" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C47" s="318"/>
       <c r="D47" s="318"/>
@@ -27135,7 +28043,7 @@
         <v>275</v>
       </c>
       <c r="C49" s="310" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D49" s="301"/>
       <c r="E49" s="301"/>
@@ -27143,7 +28051,7 @@
       <c r="G49" s="301"/>
       <c r="H49" s="302"/>
       <c r="I49" s="310" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="J49" s="311"/>
       <c r="K49" s="311"/>
@@ -27156,7 +28064,7 @@
         <v>275</v>
       </c>
       <c r="C50" s="310" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D50" s="311"/>
       <c r="E50" s="311"/>
@@ -27164,7 +28072,7 @@
       <c r="G50" s="311"/>
       <c r="H50" s="332"/>
       <c r="I50" s="310" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="J50" s="311"/>
       <c r="K50" s="311"/>
@@ -27177,7 +28085,7 @@
         <v>275</v>
       </c>
       <c r="C51" s="310" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D51" s="311"/>
       <c r="E51" s="311"/>
@@ -27185,7 +28093,7 @@
       <c r="G51" s="311"/>
       <c r="H51" s="332"/>
       <c r="I51" s="310" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="J51" s="311"/>
       <c r="K51" s="311"/>
@@ -27198,7 +28106,7 @@
         <v>275</v>
       </c>
       <c r="C52" s="310" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D52" s="311"/>
       <c r="E52" s="311"/>
@@ -27206,7 +28114,7 @@
       <c r="G52" s="311"/>
       <c r="H52" s="332"/>
       <c r="I52" s="310" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="J52" s="311"/>
       <c r="K52" s="311"/>
@@ -27217,7 +28125,7 @@
     <row r="53" spans="2:12" collapsed="1"/>
     <row r="54" spans="2:12" ht="35.25" customHeight="1">
       <c r="B54" s="323" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C54" s="323"/>
       <c r="D54" s="323"/>
@@ -27269,7 +28177,7 @@
         <v>275</v>
       </c>
       <c r="C57" s="310" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D57" s="311"/>
       <c r="E57" s="311"/>
@@ -27277,7 +28185,7 @@
       <c r="G57" s="311"/>
       <c r="H57" s="332"/>
       <c r="I57" s="310" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="J57" s="311"/>
       <c r="K57" s="311"/>
@@ -27290,7 +28198,7 @@
         <v>275</v>
       </c>
       <c r="C58" s="300" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D58" s="301"/>
       <c r="E58" s="301"/>
@@ -27298,7 +28206,7 @@
       <c r="G58" s="301"/>
       <c r="H58" s="302"/>
       <c r="I58" s="310" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="J58" s="311"/>
       <c r="K58" s="311"/>
@@ -27311,7 +28219,7 @@
         <v>275</v>
       </c>
       <c r="C59" s="310" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D59" s="311"/>
       <c r="E59" s="311"/>
@@ -27319,7 +28227,7 @@
       <c r="G59" s="311"/>
       <c r="H59" s="332"/>
       <c r="I59" s="310" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="J59" s="311"/>
       <c r="K59" s="311"/>
@@ -27332,7 +28240,7 @@
         <v>275</v>
       </c>
       <c r="C60" s="310" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D60" s="311"/>
       <c r="E60" s="311"/>
@@ -27340,7 +28248,7 @@
       <c r="G60" s="311"/>
       <c r="H60" s="332"/>
       <c r="I60" s="310" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="J60" s="311"/>
       <c r="K60" s="311"/>
@@ -27353,7 +28261,7 @@
         <v>275</v>
       </c>
       <c r="C61" s="310" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D61" s="311"/>
       <c r="E61" s="311"/>
@@ -27361,7 +28269,7 @@
       <c r="G61" s="311"/>
       <c r="H61" s="332"/>
       <c r="I61" s="310" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="J61" s="311"/>
       <c r="K61" s="311"/>
@@ -27374,7 +28282,7 @@
         <v>275</v>
       </c>
       <c r="C62" s="300" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D62" s="301"/>
       <c r="E62" s="301"/>
@@ -27382,7 +28290,7 @@
       <c r="G62" s="301"/>
       <c r="H62" s="302"/>
       <c r="I62" s="310" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="J62" s="311"/>
       <c r="K62" s="311"/>
@@ -27395,7 +28303,7 @@
         <v>275</v>
       </c>
       <c r="C63" s="300" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D63" s="301"/>
       <c r="E63" s="301"/>
@@ -27403,7 +28311,7 @@
       <c r="G63" s="301"/>
       <c r="H63" s="302"/>
       <c r="I63" s="310" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="J63" s="311"/>
       <c r="K63" s="311"/>
@@ -27416,7 +28324,7 @@
         <v>275</v>
       </c>
       <c r="C64" s="300" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D64" s="301"/>
       <c r="E64" s="301"/>
@@ -27424,7 +28332,7 @@
       <c r="G64" s="301"/>
       <c r="H64" s="302"/>
       <c r="I64" s="310" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="J64" s="311"/>
       <c r="K64" s="311"/>
@@ -27502,7 +28410,7 @@
         <v>275</v>
       </c>
       <c r="C68" s="106" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D68" s="86" t="str">
         <f>SegServerName</f>
@@ -27515,7 +28423,7 @@
 192.168.1.65</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="G68" s="93" t="str">
         <f>InternalPKIServerName</f>
@@ -27532,7 +28440,7 @@
         <v>80</v>
       </c>
       <c r="K68" s="129" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L68" s="282">
         <v>7.3</v>
@@ -27543,7 +28451,7 @@
         <v>275</v>
       </c>
       <c r="C69" s="106" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D69" s="86" t="str">
         <f>SegServerName</f>
@@ -27556,7 +28464,7 @@
 192.168.1.65</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="G69" s="93" t="str">
         <f>ADServerName</f>
@@ -27573,7 +28481,7 @@
         <v>88</v>
       </c>
       <c r="K69" s="286" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="L69" s="282">
         <v>7.3</v>
@@ -28068,15 +28976,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="B2:V81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:H36"/>
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9" outlineLevelRow="1"/>
@@ -28102,7 +29010,7 @@
   <sheetData>
     <row r="2" spans="2:22" ht="42" customHeight="1">
       <c r="B2" s="334" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C2" s="335"/>
       <c r="D2" s="335"/>
@@ -28117,7 +29025,7 @@
     </row>
     <row r="3" spans="2:22" ht="24" customHeight="1">
       <c r="B3" s="256" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C3" s="257"/>
       <c r="D3" s="257"/>
@@ -28136,13 +29044,13 @@
         <v>223</v>
       </c>
       <c r="T3" s="168" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="U3" s="28" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="15.6">
@@ -28160,19 +29068,19 @@
       <c r="K4" s="120"/>
       <c r="L4" s="40"/>
       <c r="R4" s="28" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="S4" s="28" t="s">
         <v>226</v>
       </c>
       <c r="T4" s="168" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="U4" s="28" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="2:22">
@@ -28200,13 +29108,13 @@
         <v>229</v>
       </c>
       <c r="T5" s="168" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="U5" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="2:22">
@@ -28214,7 +29122,7 @@
         <v>275</v>
       </c>
       <c r="C6" s="300" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D6" s="301"/>
       <c r="E6" s="301"/>
@@ -28233,7 +29141,7 @@
         <v>275</v>
       </c>
       <c r="C7" s="275" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D7" s="274"/>
       <c r="E7" s="274"/>
@@ -28252,7 +29160,7 @@
         <v>275</v>
       </c>
       <c r="C8" s="300" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D8" s="301"/>
       <c r="E8" s="301"/>
@@ -28271,7 +29179,7 @@
         <v>275</v>
       </c>
       <c r="C9" s="300" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D9" s="301"/>
       <c r="E9" s="301"/>
@@ -28279,7 +29187,7 @@
       <c r="G9" s="301"/>
       <c r="H9" s="302"/>
       <c r="I9" s="310" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="J9" s="311"/>
       <c r="K9" s="325"/>
@@ -28398,7 +29306,7 @@
         <v>443</v>
       </c>
       <c r="K14" s="286" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="L14" s="142">
         <v>9.1999999999999993</v>
@@ -28409,7 +29317,7 @@
         <v>275</v>
       </c>
       <c r="C15" s="179" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D15" s="86" t="str">
         <f>ensservername</f>
@@ -28442,7 +29350,7 @@
         <v>443</v>
       </c>
       <c r="K15" s="286" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="L15" s="40">
         <v>8.1999999999999993</v>
@@ -28453,7 +29361,7 @@
         <v>275</v>
       </c>
       <c r="C16" s="179" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D16" s="86" t="str">
         <f>ensservername</f>
@@ -28466,7 +29374,7 @@
 192.168.1.58</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G16" s="82" t="str">
         <f>SegDNS</f>
@@ -28477,13 +29385,13 @@
         <v>192.168.1.30</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J16" s="84" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K16" s="286" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="L16" s="40">
         <v>9.5</v>
@@ -28506,7 +29414,7 @@
         <v>#.#.#.#</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G17" s="25" t="str">
         <f>ensdns</f>
@@ -28517,13 +29425,13 @@
         <v>192.168.1.30</v>
       </c>
       <c r="I17" s="84" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J17" s="84" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K17" s="286" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="L17" s="173">
         <v>9.1999999999999993</v>
@@ -28544,7 +29452,7 @@
     </row>
     <row r="19" spans="2:12" ht="33.950000000000003" customHeight="1">
       <c r="B19" s="256" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C19" s="257"/>
       <c r="D19" s="257"/>
@@ -28598,7 +29506,7 @@
         <v>275</v>
       </c>
       <c r="C22" s="300" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D22" s="301"/>
       <c r="E22" s="301"/>
@@ -28606,7 +29514,7 @@
       <c r="G22" s="301"/>
       <c r="H22" s="302"/>
       <c r="I22" s="310" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J22" s="311"/>
       <c r="K22" s="311"/>
@@ -28653,7 +29561,7 @@
         <v>275</v>
       </c>
       <c r="C25" s="300" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D25" s="301"/>
       <c r="E25" s="301"/>
@@ -28672,7 +29580,7 @@
         <v>275</v>
       </c>
       <c r="C26" s="275" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D26" s="274"/>
       <c r="E26" s="274"/>
@@ -28691,7 +29599,7 @@
         <v>275</v>
       </c>
       <c r="C27" s="300" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D27" s="301"/>
       <c r="E27" s="301"/>
@@ -28699,7 +29607,7 @@
       <c r="G27" s="301"/>
       <c r="H27" s="302"/>
       <c r="I27" s="310" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="J27" s="311"/>
       <c r="K27" s="311"/>
@@ -28712,7 +29620,7 @@
         <v>275</v>
       </c>
       <c r="C28" s="310" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D28" s="311"/>
       <c r="E28" s="311"/>
@@ -28731,7 +29639,7 @@
         <v>275</v>
       </c>
       <c r="C29" s="275" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D29" s="274"/>
       <c r="E29" s="274"/>
@@ -28750,7 +29658,7 @@
         <v>275</v>
       </c>
       <c r="C30" s="300" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D30" s="301"/>
       <c r="E30" s="301"/>
@@ -28758,7 +29666,7 @@
       <c r="G30" s="301"/>
       <c r="H30" s="302"/>
       <c r="I30" s="310" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="J30" s="311"/>
       <c r="K30" s="311"/>
@@ -28771,7 +29679,7 @@
         <v>275</v>
       </c>
       <c r="C31" s="300" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D31" s="301"/>
       <c r="E31" s="301"/>
@@ -28779,7 +29687,7 @@
       <c r="G31" s="301"/>
       <c r="H31" s="302"/>
       <c r="I31" s="310" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="J31" s="311"/>
       <c r="K31" s="311"/>
@@ -28792,7 +29700,7 @@
         <v>275</v>
       </c>
       <c r="C32" s="300" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D32" s="301"/>
       <c r="E32" s="301"/>
@@ -28800,7 +29708,7 @@
       <c r="G32" s="301"/>
       <c r="H32" s="302"/>
       <c r="I32" s="310" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="J32" s="311"/>
       <c r="K32" s="311"/>
@@ -28813,7 +29721,7 @@
         <v>275</v>
       </c>
       <c r="C33" s="333" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D33" s="333"/>
       <c r="E33" s="333"/>
@@ -28821,7 +29729,7 @@
       <c r="G33" s="333"/>
       <c r="H33" s="333"/>
       <c r="I33" s="310" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="J33" s="311"/>
       <c r="K33" s="311"/>
@@ -28896,7 +29804,7 @@
       <c r="G37" s="301"/>
       <c r="H37" s="302"/>
       <c r="I37" s="310" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="J37" s="311"/>
       <c r="K37" s="311"/>
@@ -28917,7 +29825,7 @@
       <c r="G38" s="301"/>
       <c r="H38" s="302"/>
       <c r="I38" s="310" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="J38" s="311"/>
       <c r="K38" s="311"/>
@@ -28938,7 +29846,7 @@
       <c r="G39" s="301"/>
       <c r="H39" s="302"/>
       <c r="I39" s="310" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="J39" s="311"/>
       <c r="K39" s="311"/>
@@ -28969,7 +29877,7 @@
     </row>
     <row r="41" spans="2:12" ht="15.6" outlineLevel="1">
       <c r="B41" s="178" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C41" s="178"/>
       <c r="D41" s="178"/>
@@ -29014,7 +29922,7 @@
       <c r="G43" s="301"/>
       <c r="H43" s="302"/>
       <c r="I43" s="310" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="J43" s="311"/>
       <c r="K43" s="311"/>
@@ -29027,7 +29935,7 @@
         <v>275</v>
       </c>
       <c r="C44" s="300" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D44" s="301"/>
       <c r="E44" s="301"/>
@@ -29035,7 +29943,7 @@
       <c r="G44" s="301"/>
       <c r="H44" s="302"/>
       <c r="I44" s="310" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="J44" s="311"/>
       <c r="K44" s="311"/>
@@ -29048,7 +29956,7 @@
         <v>275</v>
       </c>
       <c r="C45" s="310" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D45" s="301"/>
       <c r="E45" s="301"/>
@@ -29056,7 +29964,7 @@
       <c r="G45" s="301"/>
       <c r="H45" s="302"/>
       <c r="I45" s="310" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="J45" s="311"/>
       <c r="K45" s="311"/>
@@ -29142,7 +30050,7 @@
       </c>
       <c r="L49" s="40"/>
     </row>
-    <row r="50" spans="2:12" ht="14.45" outlineLevel="1">
+    <row r="50" spans="2:12" outlineLevel="1">
       <c r="B50" s="40" t="str">
         <f>IF(UsingEns="Yes", "Pending", "N/A")</f>
         <v>Pending</v>
@@ -29153,15 +30061,15 @@
       </c>
       <c r="D50" s="61"/>
       <c r="E50" s="61"/>
-      <c r="F50" s="24" t="str">
+      <c r="F50" s="21" t="str">
         <f>ComENS2</f>
         <v>ENSv2 (On Premise)</v>
       </c>
-      <c r="G50" s="89" t="str">
+      <c r="G50" s="21" t="str">
         <f>ensdns</f>
         <v>ens.haramco.xyz</v>
       </c>
-      <c r="H50" s="89" t="str">
+      <c r="H50" s="21" t="str">
         <f>ensdnsip</f>
         <v>192.168.1.30</v>
       </c>
@@ -29176,7 +30084,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="28.9" outlineLevel="1">
+    <row r="51" spans="2:12" ht="27.6" outlineLevel="1">
       <c r="B51" s="40" t="str">
         <f>IF(UsingEns="Yes", "Pending", "N/A")</f>
         <v>Pending</v>
@@ -29185,12 +30093,12 @@
         <f>ComENS2</f>
         <v>ENSv2 (On Premise)</v>
       </c>
-      <c r="D51" s="125" t="str">
+      <c r="D51" s="124" t="str">
         <f>ensservername</f>
         <v>ens1.haramco.xyz
 ens2.haramco.xyz</v>
       </c>
-      <c r="E51" s="125" t="str">
+      <c r="E51" s="124" t="str">
         <f>ensip</f>
         <v>192.168.1.67
 192.168.1.58</v>
@@ -29199,13 +30107,13 @@
         <f>ComENS2DB</f>
         <v>ENSv2 [DB] (On Premise)</v>
       </c>
-      <c r="G51" s="25" t="e">
-        <f>ensdbdns</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H51" s="116" t="e">
-        <f>ensdbdnsip</f>
-        <v>#NAME?</v>
+      <c r="G51" s="21" t="str">
+        <f>EnsDatabase</f>
+        <v>ensdb.haramco.xyz</v>
+      </c>
+      <c r="H51" s="21" t="str">
+        <f>EnsDatabaseIp</f>
+        <v>192.168.1.30</v>
       </c>
       <c r="I51" s="127" t="s">
         <v>327</v>
@@ -29220,7 +30128,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="28.9" outlineLevel="1">
+    <row r="52" spans="2:12" ht="27.6" outlineLevel="1">
       <c r="B52" s="40" t="str">
         <f>IF(UsingEns="Yes", "Pending", "N/A")</f>
         <v>Pending</v>
@@ -29229,18 +30137,18 @@
         <f>ComENS2</f>
         <v>ENSv2 (On Premise)</v>
       </c>
-      <c r="D52" s="125" t="str">
+      <c r="D52" s="124" t="str">
         <f>ensservername</f>
         <v>ens1.haramco.xyz
 ens2.haramco.xyz</v>
       </c>
-      <c r="E52" s="125" t="str">
+      <c r="E52" s="124" t="str">
         <f>ensip</f>
         <v>192.168.1.67
 192.168.1.58</v>
       </c>
-      <c r="F52" s="89" t="s">
-        <v>699</v>
+      <c r="F52" s="21" t="s">
+        <v>694</v>
       </c>
       <c r="G52" s="61"/>
       <c r="H52" s="61"/>
@@ -29251,40 +30159,40 @@
         <v>443</v>
       </c>
       <c r="K52" s="286" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="L52" s="40">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="28.9" outlineLevel="1">
+    <row r="53" spans="2:12" ht="27.6" outlineLevel="1">
       <c r="B53" s="40" t="str">
-        <f>IF(UsingEns="Yes", "Pending", "N/A")</f>
+        <f>IF(UsingEns="Yes", IF(UsingMail="Yes", "Pending", "N/A"), "N/A")</f>
         <v>Pending</v>
       </c>
       <c r="C53" s="124" t="str">
         <f>ComENS2</f>
         <v>ENSv2 (On Premise)</v>
       </c>
-      <c r="D53" s="125" t="str">
+      <c r="D53" s="124" t="str">
         <f>ensservername</f>
         <v>ens1.haramco.xyz
 ens2.haramco.xyz</v>
       </c>
-      <c r="E53" s="125" t="str">
+      <c r="E53" s="124" t="str">
         <f>ensip</f>
         <v>192.168.1.67
 192.168.1.58</v>
       </c>
-      <c r="F53" s="24" t="str">
+      <c r="F53" s="21" t="str">
         <f>ComMailServer</f>
         <v>Mail Server</v>
       </c>
-      <c r="G53" s="89" t="str">
+      <c r="G53" s="21" t="str">
         <f>MailServerName</f>
         <v>mail.fqdn.com</v>
       </c>
-      <c r="H53" s="25" t="str">
+      <c r="H53" s="21" t="str">
         <f>MailServerIp</f>
         <v>#.#.#.#</v>
       </c>
@@ -29297,7 +30205,7 @@
         <v>443</v>
       </c>
       <c r="K53" s="286" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="L53" s="40">
         <v>8.1999999999999993</v>
@@ -29305,30 +30213,30 @@
     </row>
     <row r="54" spans="2:12" ht="27.6" outlineLevel="1">
       <c r="B54" s="40" t="str">
-        <f>IF(UsingEns="Yes", "Pending", "N/A")</f>
+        <f>IF(UsingEns="Yes", IF(UsingMail="Yes", "Pending", "N/A"), "N/A")</f>
         <v>Pending</v>
       </c>
       <c r="C54" s="106" t="str">
         <f>ComMailServer</f>
         <v>Mail Server</v>
       </c>
-      <c r="D54" s="86" t="str">
+      <c r="D54" s="106" t="str">
         <f>MailServerName</f>
         <v>mail.fqdn.com</v>
       </c>
-      <c r="E54" s="86" t="str">
+      <c r="E54" s="106" t="str">
         <f>MailServerIp</f>
         <v>#.#.#.#</v>
       </c>
-      <c r="F54" s="24" t="str">
+      <c r="F54" s="21" t="str">
         <f>ComENS2</f>
         <v>ENSv2 (On Premise)</v>
       </c>
-      <c r="G54" s="89" t="str">
+      <c r="G54" s="21" t="str">
         <f>ensdns</f>
         <v>ens.haramco.xyz</v>
       </c>
-      <c r="H54" s="89" t="str">
+      <c r="H54" s="21" t="str">
         <f>ensdnsip</f>
         <v>192.168.1.30</v>
       </c>
@@ -29339,7 +30247,7 @@
         <v>443</v>
       </c>
       <c r="K54" s="286" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="L54" s="173">
         <v>9.1999999999999993</v>
@@ -29348,7 +30256,7 @@
     <row r="57" spans="2:12" hidden="1"/>
     <row r="58" spans="2:12" ht="57.95" hidden="1" customHeight="1">
       <c r="B58" s="356" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C58" s="357"/>
       <c r="D58" s="357"/>
@@ -29402,7 +30310,7 @@
         <v>275</v>
       </c>
       <c r="C61" s="300" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D61" s="301"/>
       <c r="E61" s="301"/>
@@ -29410,7 +30318,7 @@
       <c r="G61" s="301"/>
       <c r="H61" s="302"/>
       <c r="I61" s="310" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="J61" s="311"/>
       <c r="K61" s="331"/>
@@ -29470,7 +30378,7 @@
         <v>275</v>
       </c>
       <c r="C65" s="310" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D65" s="311"/>
       <c r="E65" s="311"/>
@@ -29489,7 +30397,7 @@
         <v>275</v>
       </c>
       <c r="C66" s="300" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D66" s="301"/>
       <c r="E66" s="301"/>
@@ -29497,7 +30405,7 @@
       <c r="G66" s="301"/>
       <c r="H66" s="302"/>
       <c r="I66" s="310" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="J66" s="311"/>
       <c r="K66" s="331"/>
@@ -29510,7 +30418,7 @@
         <v>275</v>
       </c>
       <c r="C67" s="300" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D67" s="301"/>
       <c r="E67" s="301"/>
@@ -29576,7 +30484,7 @@
         <v>275</v>
       </c>
       <c r="C71" s="300" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D71" s="301"/>
       <c r="E71" s="301"/>
@@ -29694,7 +30602,7 @@
         <v>275</v>
       </c>
       <c r="C77" s="109" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D77" s="171" t="str">
         <f>ensservername</f>
@@ -29707,13 +30615,13 @@
 192.168.1.58</v>
       </c>
       <c r="F77" s="81" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G77" s="88" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="H77" s="116" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="I77" s="83" t="s">
         <v>330</v>
@@ -29722,7 +30630,7 @@
         <v>443</v>
       </c>
       <c r="K77" s="85" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="L77" s="139">
         <v>8.1999999999999993</v>
@@ -29733,7 +30641,7 @@
         <v>275</v>
       </c>
       <c r="C78" s="109" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D78" s="171" t="str">
         <f>ensservername</f>
@@ -29746,7 +30654,7 @@
 192.168.1.58</v>
       </c>
       <c r="F78" s="81" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G78" s="115" t="str">
         <f>apidns</f>
@@ -29763,7 +30671,7 @@
         <v>443</v>
       </c>
       <c r="K78" s="172" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L78" s="139">
         <v>8.1999999999999993</v>
@@ -29774,7 +30682,7 @@
         <v>275</v>
       </c>
       <c r="C79" s="80" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D79" s="171" t="str">
         <f>ensservername</f>
@@ -29787,7 +30695,7 @@
 192.168.1.58</v>
       </c>
       <c r="F79" s="81" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G79" s="88" t="str">
         <f>MailServerName</f>
@@ -29798,13 +30706,13 @@
         <v>#.#.#.#</v>
       </c>
       <c r="I79" s="87" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J79" s="87" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K79" s="90" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="L79" s="174">
         <v>8.1999999999999993</v>
@@ -29815,7 +30723,7 @@
         <v>275</v>
       </c>
       <c r="C80" s="80" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D80" s="86" t="str">
         <f>MailServerName</f>
@@ -29826,23 +30734,23 @@
         <v>#.#.#.#</v>
       </c>
       <c r="F80" s="81" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G80" s="91" t="str">
         <f>ensdns</f>
         <v>ens.haramco.xyz</v>
       </c>
       <c r="H80" s="89" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="I80" s="87" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J80" s="87" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K80" s="90" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="L80" s="123">
         <v>9</v>
@@ -30538,7 +31446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53530C39-F79C-1145-9559-CB7E2E5D576D}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -30546,7 +31454,7 @@
   <dimension ref="B2:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9"/>
@@ -30567,7 +31475,7 @@
   <sheetData>
     <row r="2" spans="2:16" ht="17.45">
       <c r="B2" s="315" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C2" s="316"/>
       <c r="D2" s="316"/>
@@ -30582,7 +31490,7 @@
     </row>
     <row r="3" spans="2:16" ht="16.149999999999999" thickBot="1">
       <c r="B3" s="317" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C3" s="318"/>
       <c r="D3" s="318"/>
@@ -30642,7 +31550,7 @@
         <v>275</v>
       </c>
       <c r="C6" s="300" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D6" s="301"/>
       <c r="E6" s="301"/>
@@ -30667,10 +31575,10 @@
       <c r="K7" s="47"/>
       <c r="L7" s="41"/>
       <c r="O7" s="28" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.6">
@@ -30688,10 +31596,10 @@
       <c r="K8" s="318"/>
       <c r="L8" s="41"/>
       <c r="O8" s="28" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="2:16">
@@ -30713,10 +31621,10 @@
       <c r="K9" s="314"/>
       <c r="L9" s="41"/>
       <c r="O9" s="28" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.100000000000001" customHeight="1">
@@ -30738,10 +31646,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="O10" s="28" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="2:16">
@@ -30749,7 +31657,7 @@
         <v>275</v>
       </c>
       <c r="C11" s="300" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D11" s="301"/>
       <c r="E11" s="301"/>
@@ -30763,19 +31671,19 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="O11" s="28" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.45" thickBot="1"/>
     <row r="13" spans="2:16" ht="28.15" thickBot="1">
       <c r="B13" s="186" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C13" s="219" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D13" s="28" t="str">
         <f>VLOOKUP(C13,O7:P11,2,FALSE)</f>
@@ -30877,7 +31785,7 @@
         <v>192.168.1.30</v>
       </c>
       <c r="I17" s="127" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="J17" s="127">
         <v>1433</v>
@@ -30917,7 +31825,7 @@
         <v>443</v>
       </c>
       <c r="K18" s="286" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="L18" s="41">
         <v>9.3000000000000007</v>
@@ -30953,7 +31861,7 @@
         <v>443</v>
       </c>
       <c r="K19" s="286" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="L19" s="41">
         <v>9.3000000000000007</v>
@@ -30989,7 +31897,7 @@
         <v>443</v>
       </c>
       <c r="K20" s="286" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="L20" s="41">
         <v>9.3000000000000007</v>
@@ -31013,7 +31921,7 @@
         <v>N/A</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="G21" s="187"/>
       <c r="H21" s="65"/>
@@ -31057,7 +31965,7 @@
         <v>443</v>
       </c>
       <c r="K22" s="286" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="L22" s="41">
         <v>9.3000000000000007</v>
@@ -31204,7 +32112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08D5709-D4D9-3142-9E2F-3C1254A0AFB9}">
   <dimension ref="B1:K11"/>
   <sheetViews>
@@ -31230,7 +32138,7 @@
     <row r="1" spans="2:11" ht="10.5" customHeight="1"/>
     <row r="2" spans="2:11" ht="15.95" customHeight="1">
       <c r="B2" s="188" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C2" s="189"/>
       <c r="D2" s="189"/>
@@ -31244,7 +32152,7 @@
     </row>
     <row r="3" spans="2:11" ht="15.6">
       <c r="B3" s="307" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C3" s="307"/>
       <c r="D3" s="307"/>
@@ -31292,7 +32200,7 @@
     </row>
     <row r="7" spans="2:11" ht="15.6">
       <c r="B7" s="317" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C7" s="318"/>
       <c r="D7" s="318"/>
@@ -31502,7 +32410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -31510,8 +32418,8 @@
   </sheetPr>
   <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="13.9"/>
@@ -31533,7 +32441,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="42" customHeight="1">
       <c r="B2" s="323" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C2" s="323"/>
       <c r="D2" s="323"/>
@@ -31587,7 +32495,7 @@
         <v>275</v>
       </c>
       <c r="C5" s="300" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D5" s="301"/>
       <c r="E5" s="301"/>
@@ -31595,7 +32503,7 @@
       <c r="G5" s="301"/>
       <c r="H5" s="302"/>
       <c r="I5" s="330" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="J5" s="330"/>
       <c r="K5" s="330"/>
@@ -31653,7 +32561,7 @@
         <v>275</v>
       </c>
       <c r="C9" s="300" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D9" s="301"/>
       <c r="E9" s="301"/>
@@ -31661,7 +32569,7 @@
       <c r="G9" s="301"/>
       <c r="H9" s="301"/>
       <c r="I9" s="330" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="J9" s="362"/>
       <c r="K9" s="362"/>
@@ -31680,7 +32588,7 @@
       <c r="G10" s="301"/>
       <c r="H10" s="302"/>
       <c r="I10" s="327" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="J10" s="328"/>
       <c r="K10" s="328"/>
@@ -31699,7 +32607,7 @@
       <c r="G11" s="301"/>
       <c r="H11" s="302"/>
       <c r="I11" s="327" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="J11" s="328"/>
       <c r="K11" s="328"/>
@@ -31710,7 +32618,7 @@
         <v>275</v>
       </c>
       <c r="C12" s="300" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D12" s="301"/>
       <c r="E12" s="301"/>
@@ -31718,7 +32626,7 @@
       <c r="G12" s="301"/>
       <c r="H12" s="302"/>
       <c r="I12" s="310" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="J12" s="311"/>
       <c r="K12" s="311"/>
@@ -31729,7 +32637,7 @@
         <v>275</v>
       </c>
       <c r="C13" s="300" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D13" s="301"/>
       <c r="E13" s="301"/>
@@ -31737,7 +32645,7 @@
       <c r="G13" s="301"/>
       <c r="H13" s="302"/>
       <c r="I13" s="310" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="J13" s="311"/>
       <c r="K13" s="311"/>
@@ -31748,7 +32656,7 @@
         <v>275</v>
       </c>
       <c r="C14" s="300" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D14" s="301"/>
       <c r="E14" s="301"/>
@@ -31756,7 +32664,7 @@
       <c r="G14" s="301"/>
       <c r="H14" s="302"/>
       <c r="I14" s="310" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="J14" s="311"/>
       <c r="K14" s="311"/>
@@ -31836,7 +32744,7 @@
         <v>326</v>
       </c>
       <c r="K18" s="60" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="L18" s="101"/>
     </row>
@@ -32018,15 +32926,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:L45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:H15"/>
+    <sheetView showGridLines="0" topLeftCell="D30" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.9"/>
@@ -32048,7 +32956,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="15.95" customHeight="1">
       <c r="B2" s="334" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C2" s="335"/>
       <c r="D2" s="335"/>
@@ -32110,7 +33018,7 @@
       <c r="G5" s="301"/>
       <c r="H5" s="302"/>
       <c r="I5" s="310" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="J5" s="311"/>
       <c r="K5" s="311"/>
@@ -32170,7 +33078,7 @@
         <v>275</v>
       </c>
       <c r="C9" s="310" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D9" s="311"/>
       <c r="E9" s="311"/>
@@ -32178,7 +33086,7 @@
       <c r="G9" s="311"/>
       <c r="H9" s="332"/>
       <c r="I9" s="310" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="J9" s="311"/>
       <c r="K9" s="311"/>
@@ -32191,7 +33099,7 @@
         <v>275</v>
       </c>
       <c r="C10" s="300" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D10" s="301"/>
       <c r="E10" s="301"/>
@@ -32199,7 +33107,7 @@
       <c r="G10" s="301"/>
       <c r="H10" s="302"/>
       <c r="I10" s="310" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="J10" s="311"/>
       <c r="K10" s="311"/>
@@ -32212,7 +33120,7 @@
         <v>275</v>
       </c>
       <c r="C11" s="300" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D11" s="301"/>
       <c r="E11" s="301"/>
@@ -32220,7 +33128,7 @@
       <c r="G11" s="301"/>
       <c r="H11" s="302"/>
       <c r="I11" s="310" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="J11" s="311"/>
       <c r="K11" s="311"/>
@@ -32300,7 +33208,7 @@
         <v>275</v>
       </c>
       <c r="C16" s="310" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="D16" s="301"/>
       <c r="E16" s="301"/>
@@ -32327,7 +33235,7 @@
       <c r="G17" s="301"/>
       <c r="H17" s="302"/>
       <c r="I17" s="363" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="J17" s="311"/>
       <c r="K17" s="331"/>
@@ -32340,7 +33248,7 @@
         <v>275</v>
       </c>
       <c r="C18" s="300" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D18" s="301"/>
       <c r="E18" s="301"/>
@@ -32348,7 +33256,7 @@
       <c r="G18" s="301"/>
       <c r="H18" s="302"/>
       <c r="I18" s="310" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J18" s="311"/>
       <c r="K18" s="331"/>
@@ -32361,7 +33269,7 @@
         <v>275</v>
       </c>
       <c r="C19" s="300" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D19" s="301"/>
       <c r="E19" s="301"/>
@@ -32390,7 +33298,7 @@
     </row>
     <row r="21" spans="2:12" ht="15.6">
       <c r="B21" s="296" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C21" s="297"/>
       <c r="D21" s="297"/>
@@ -32427,7 +33335,7 @@
         <v>275</v>
       </c>
       <c r="C23" s="300" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D23" s="301"/>
       <c r="E23" s="301"/>
@@ -32435,7 +33343,7 @@
       <c r="G23" s="301"/>
       <c r="H23" s="302"/>
       <c r="I23" s="310" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="J23" s="311"/>
       <c r="K23" s="311"/>
@@ -32448,7 +33356,7 @@
         <v>275</v>
       </c>
       <c r="C24" s="310" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D24" s="301"/>
       <c r="E24" s="301"/>
@@ -32456,7 +33364,7 @@
       <c r="G24" s="301"/>
       <c r="H24" s="302"/>
       <c r="I24" s="310" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="J24" s="311"/>
       <c r="K24" s="311"/>
@@ -32469,7 +33377,7 @@
         <v>44</v>
       </c>
       <c r="C25" s="310" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D25" s="301"/>
       <c r="E25" s="301"/>
@@ -32477,7 +33385,7 @@
       <c r="G25" s="301"/>
       <c r="H25" s="302"/>
       <c r="I25" s="310" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="J25" s="311"/>
       <c r="K25" s="311"/>
@@ -32487,7 +33395,7 @@
     </row>
     <row r="27" spans="2:12" ht="15.6">
       <c r="B27" s="296" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C27" s="297"/>
       <c r="D27" s="297"/>
@@ -32524,7 +33432,7 @@
         <v>275</v>
       </c>
       <c r="C29" s="310" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D29" s="301"/>
       <c r="E29" s="301"/>
@@ -32532,7 +33440,7 @@
       <c r="G29" s="301"/>
       <c r="H29" s="302"/>
       <c r="I29" s="310" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="J29" s="311"/>
       <c r="K29" s="311"/>
@@ -32545,7 +33453,7 @@
         <v>275</v>
       </c>
       <c r="C30" s="310" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D30" s="301"/>
       <c r="E30" s="301"/>
@@ -32553,7 +33461,7 @@
       <c r="G30" s="301"/>
       <c r="H30" s="302"/>
       <c r="I30" s="310" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="J30" s="311"/>
       <c r="K30" s="311"/>
@@ -32566,7 +33474,7 @@
         <v>275</v>
       </c>
       <c r="C31" s="310" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D31" s="301"/>
       <c r="E31" s="301"/>
@@ -32574,7 +33482,7 @@
       <c r="G31" s="301"/>
       <c r="H31" s="302"/>
       <c r="I31" s="310" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="J31" s="311"/>
       <c r="K31" s="311"/>
@@ -32706,7 +33614,7 @@
         <v>192.168.1.87</v>
       </c>
       <c r="I37" s="127" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="J37" s="84">
         <v>8443</v>
@@ -32820,7 +33728,7 @@
         <v>340</v>
       </c>
       <c r="K40" s="286" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="L40" s="117">
         <v>9.1999999999999993</v>
@@ -32862,7 +33770,7 @@
         <v>8443</v>
       </c>
       <c r="K41" s="286" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="L41" s="117">
         <v>9.1999999999999993</v>
@@ -32904,7 +33812,7 @@
         <v>1433</v>
       </c>
       <c r="K42" s="129" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="L42" s="117">
         <v>9.1999999999999993</v>
@@ -32943,10 +33851,10 @@
         <v>327</v>
       </c>
       <c r="J43" s="111" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="K43" s="129" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="L43" s="117">
         <v>9.1999999999999993</v>
@@ -32988,7 +33896,7 @@
         <v>12780</v>
       </c>
       <c r="K44" s="129" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="L44" s="117">
         <v>9.1999999999999993</v>
@@ -33030,7 +33938,7 @@
         <v>53</v>
       </c>
       <c r="K45" s="194" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="L45" s="117">
         <v>9.1999999999999993</v>
@@ -33463,7 +34371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
@@ -33471,7 +34379,7 @@
   <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
@@ -33493,7 +34401,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="46.5" customHeight="1">
       <c r="B2" s="323" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C2" s="323"/>
       <c r="D2" s="323"/>
@@ -33555,7 +34463,7 @@
       <c r="G5" s="365"/>
       <c r="H5" s="366"/>
       <c r="I5" s="364" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="J5" s="365"/>
       <c r="K5" s="365"/>
@@ -33615,7 +34523,7 @@
         <v>275</v>
       </c>
       <c r="C9" s="310" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D9" s="311"/>
       <c r="E9" s="311"/>
@@ -33623,7 +34531,7 @@
       <c r="G9" s="311"/>
       <c r="H9" s="332"/>
       <c r="I9" s="364" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="J9" s="365"/>
       <c r="K9" s="365"/>
@@ -33636,7 +34544,7 @@
         <v>275</v>
       </c>
       <c r="C10" s="364" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D10" s="365"/>
       <c r="E10" s="365"/>
@@ -33644,7 +34552,7 @@
       <c r="G10" s="365"/>
       <c r="H10" s="366"/>
       <c r="I10" s="364" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="J10" s="365"/>
       <c r="K10" s="365"/>
@@ -33704,7 +34612,7 @@
         <v>275</v>
       </c>
       <c r="C14" s="364" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D14" s="365"/>
       <c r="E14" s="365"/>
@@ -33712,7 +34620,7 @@
       <c r="G14" s="365"/>
       <c r="H14" s="366"/>
       <c r="I14" s="367" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="J14" s="368"/>
       <c r="K14" s="368"/>
@@ -33725,7 +34633,7 @@
         <v>275</v>
       </c>
       <c r="C15" s="364" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="D15" s="365"/>
       <c r="E15" s="365"/>
@@ -33747,7 +34655,7 @@
         <v>275</v>
       </c>
       <c r="C16" s="364" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D16" s="365"/>
       <c r="E16" s="365"/>
@@ -33766,7 +34674,7 @@
         <v>275</v>
       </c>
       <c r="C17" s="364" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D17" s="365"/>
       <c r="E17" s="365"/>
@@ -33793,7 +34701,7 @@
       <c r="G18" s="365"/>
       <c r="H18" s="366"/>
       <c r="I18" s="367" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="J18" s="368"/>
       <c r="K18" s="368"/>
@@ -33875,13 +34783,13 @@
         <v>326</v>
       </c>
       <c r="K22" s="60" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="L22" s="197"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="140" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C23" s="141"/>
       <c r="D23" s="141"/>
@@ -33918,13 +34826,13 @@
         <v>192.168.1.30</v>
       </c>
       <c r="I24" s="127" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="K24" s="286" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="L24" s="197" t="s">
         <v>302</v>
@@ -33960,13 +34868,13 @@
         <v>192.168.1.30</v>
       </c>
       <c r="I25" s="127" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="J25" s="84" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="K25" s="286" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="L25" s="198" t="s">
         <v>302</v>
@@ -33974,7 +34882,7 @@
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="140" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C26" s="143"/>
       <c r="D26" s="199"/>
@@ -34011,13 +34919,13 @@
         <v>192.168.1.30</v>
       </c>
       <c r="I27" s="127" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="J27" s="84" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="K27" s="286" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="L27" s="197"/>
     </row>
@@ -34051,13 +34959,13 @@
         <v>192.168.1.30</v>
       </c>
       <c r="I28" s="127" t="s">
+        <v>792</v>
+      </c>
+      <c r="J28" s="84" t="s">
+        <v>793</v>
+      </c>
+      <c r="K28" s="286" t="s">
         <v>797</v>
-      </c>
-      <c r="J28" s="84" t="s">
-        <v>798</v>
-      </c>
-      <c r="K28" s="286" t="s">
-        <v>802</v>
       </c>
       <c r="L28" s="197" t="s">
         <v>302</v>
@@ -34460,8 +35368,8 @@
   </sheetPr>
   <dimension ref="A1:AC109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="13.9"/>
@@ -37372,146 +38280,146 @@
     <mergeCell ref="N56:P56"/>
   </mergeCells>
   <conditionalFormatting sqref="B56 E83:F83 B83:C85 B87:E87 B88:B96 E84:E85">
-    <cfRule type="cellIs" dxfId="1072" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="1112" priority="112" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1071" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="1111" priority="113" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="1070" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="1110" priority="110" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1069" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="1109" priority="111" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C40 C17:C27">
-    <cfRule type="expression" dxfId="1068" priority="93">
+    <cfRule type="expression" dxfId="1108" priority="93">
       <formula>$C$6="On-Premise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:G40">
-    <cfRule type="expression" dxfId="1067" priority="58">
+    <cfRule type="expression" dxfId="1107" priority="58">
       <formula>$C$6="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:H40">
-    <cfRule type="expression" dxfId="1066" priority="61">
+    <cfRule type="expression" dxfId="1106" priority="61">
       <formula>$C17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:F19">
-    <cfRule type="expression" dxfId="1065" priority="42">
+    <cfRule type="expression" dxfId="1105" priority="42">
       <formula>$C19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:G23">
-    <cfRule type="expression" dxfId="1064" priority="39">
+    <cfRule type="expression" dxfId="1104" priority="39">
       <formula>$C23="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:F24">
-    <cfRule type="expression" dxfId="1063" priority="38">
+    <cfRule type="expression" dxfId="1103" priority="38">
       <formula>$C24="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:G25 D26:F26">
-    <cfRule type="expression" dxfId="1062" priority="37">
+    <cfRule type="expression" dxfId="1102" priority="37">
       <formula>$C25="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:G14">
-    <cfRule type="expression" dxfId="1061" priority="32">
+    <cfRule type="expression" dxfId="1101" priority="32">
       <formula>$C$6="On-Premise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:H13">
-    <cfRule type="expression" dxfId="1060" priority="30">
+    <cfRule type="expression" dxfId="1100" priority="30">
       <formula>$C$6="On-Premise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="1059" priority="28">
+    <cfRule type="expression" dxfId="1099" priority="28">
       <formula>$C22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="expression" dxfId="1058" priority="27">
+    <cfRule type="expression" dxfId="1098" priority="27">
       <formula>$C22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="expression" dxfId="1057" priority="26">
+    <cfRule type="expression" dxfId="1097" priority="26">
       <formula>$C22="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C54">
-    <cfRule type="expression" dxfId="1056" priority="24">
+    <cfRule type="expression" dxfId="1096" priority="24">
       <formula>$C$6="On-Premise"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C54">
-    <cfRule type="expression" dxfId="1055" priority="23">
+    <cfRule type="expression" dxfId="1095" priority="23">
       <formula>$C$6="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:F54">
-    <cfRule type="expression" dxfId="1054" priority="19">
+    <cfRule type="expression" dxfId="1094" priority="19">
       <formula>$C$6="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:F54">
-    <cfRule type="expression" dxfId="1053" priority="20">
+    <cfRule type="expression" dxfId="1093" priority="20">
       <formula>$C44="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:B61">
-    <cfRule type="cellIs" dxfId="1052" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="1092" priority="17" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1051" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="1091" priority="18" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="1050" priority="16">
+    <cfRule type="expression" dxfId="1090" priority="16">
       <formula>$C$6="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="1049" priority="15">
+    <cfRule type="expression" dxfId="1089" priority="15">
       <formula>$C$6="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:M40">
-    <cfRule type="expression" dxfId="1048" priority="6">
+    <cfRule type="expression" dxfId="1088" priority="6">
       <formula>$C$108="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:M40">
-    <cfRule type="expression" dxfId="1047" priority="11">
+    <cfRule type="expression" dxfId="1087" priority="11">
       <formula>$C17="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="expression" dxfId="1046" priority="5">
+    <cfRule type="expression" dxfId="1086" priority="5">
       <formula>$C19="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G22">
-    <cfRule type="expression" dxfId="1045" priority="4">
+    <cfRule type="expression" dxfId="1085" priority="4">
       <formula>$C20="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="expression" dxfId="1044" priority="3">
+    <cfRule type="expression" dxfId="1084" priority="3">
       <formula>$C24="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="1043" priority="2">
+    <cfRule type="expression" dxfId="1083" priority="2">
       <formula>$C26="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37583,8 +38491,8 @@
   </sheetPr>
   <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.15"/>
@@ -37666,7 +38574,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="22.5">
+    <row r="5" spans="2:6" ht="30.6">
       <c r="B5" s="216">
         <v>1.3</v>
       </c>
@@ -37724,10 +38632,10 @@
     <mergeCell ref="B19:F19"/>
   </mergeCells>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="1042" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1082" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1041" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1081" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37748,7 +38656,7 @@
   </sheetPr>
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -38353,62 +39261,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A71 A76:A77">
-    <cfRule type="expression" dxfId="1033" priority="12">
+    <cfRule type="expression" dxfId="1073" priority="12">
       <formula>$D$31="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68">
-    <cfRule type="expression" dxfId="1032" priority="11">
+    <cfRule type="expression" dxfId="1072" priority="11">
       <formula>$D$31="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="1031" priority="10">
+    <cfRule type="expression" dxfId="1071" priority="10">
       <formula>$D$31="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="1030" priority="9">
+    <cfRule type="expression" dxfId="1070" priority="9">
       <formula>$D$31="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="expression" dxfId="1029" priority="8">
+    <cfRule type="expression" dxfId="1069" priority="8">
       <formula>$D$31="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="expression" dxfId="1028" priority="7">
+    <cfRule type="expression" dxfId="1068" priority="7">
       <formula>$D$31="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="1027" priority="6">
+    <cfRule type="expression" dxfId="1067" priority="6">
       <formula>$D$31="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:A88">
-    <cfRule type="expression" dxfId="1026" priority="2">
+    <cfRule type="expression" dxfId="1066" priority="2">
       <formula>$D$31="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="1025" priority="5">
+    <cfRule type="expression" dxfId="1065" priority="5">
       <formula>$D$31="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="expression" dxfId="1024" priority="4">
+    <cfRule type="expression" dxfId="1064" priority="4">
       <formula>$D$31="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="1023" priority="3">
+    <cfRule type="expression" dxfId="1063" priority="3">
       <formula>$D$31="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="expression" dxfId="1022" priority="1">
+    <cfRule type="expression" dxfId="1062" priority="1">
       <formula>$C$1="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38433,7 +39341,7 @@
   </sheetPr>
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView topLeftCell="B58" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -41470,97 +42378,97 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A82:A83">
-    <cfRule type="expression" dxfId="1002" priority="21">
+    <cfRule type="expression" dxfId="1042" priority="21">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:A74">
-    <cfRule type="expression" dxfId="1001" priority="18">
+    <cfRule type="expression" dxfId="1041" priority="18">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A68">
-    <cfRule type="expression" dxfId="1000" priority="17">
+    <cfRule type="expression" dxfId="1040" priority="17">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75:A79">
-    <cfRule type="expression" dxfId="999" priority="1">
+    <cfRule type="expression" dxfId="1039" priority="1">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:A62">
-    <cfRule type="expression" dxfId="998" priority="16">
+    <cfRule type="expression" dxfId="1038" priority="16">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A57">
-    <cfRule type="expression" dxfId="997" priority="15">
+    <cfRule type="expression" dxfId="1037" priority="15">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:A52">
-    <cfRule type="expression" dxfId="996" priority="14">
+    <cfRule type="expression" dxfId="1036" priority="14">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A47">
-    <cfRule type="expression" dxfId="995" priority="13">
+    <cfRule type="expression" dxfId="1035" priority="13">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A42">
-    <cfRule type="expression" dxfId="994" priority="12">
+    <cfRule type="expression" dxfId="1034" priority="12">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:A40">
-    <cfRule type="expression" dxfId="993" priority="11">
+    <cfRule type="expression" dxfId="1033" priority="11">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A33">
-    <cfRule type="expression" dxfId="992" priority="10">
+    <cfRule type="expression" dxfId="1032" priority="10">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:A28">
-    <cfRule type="expression" dxfId="991" priority="9">
+    <cfRule type="expression" dxfId="1031" priority="9">
       <formula>$C$1="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A26">
-    <cfRule type="expression" dxfId="990" priority="8">
+    <cfRule type="expression" dxfId="1030" priority="8">
       <formula>$C$1="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:A24">
-    <cfRule type="expression" dxfId="989" priority="7">
+    <cfRule type="expression" dxfId="1029" priority="7">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:A19">
-    <cfRule type="expression" dxfId="988" priority="6">
+    <cfRule type="expression" dxfId="1028" priority="6">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A12">
-    <cfRule type="expression" dxfId="987" priority="5">
+    <cfRule type="expression" dxfId="1027" priority="5">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="expression" dxfId="986" priority="4">
+    <cfRule type="expression" dxfId="1026" priority="4">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14">
-    <cfRule type="expression" dxfId="985" priority="3">
+    <cfRule type="expression" dxfId="1025" priority="3">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:A81">
-    <cfRule type="expression" dxfId="984" priority="2">
+    <cfRule type="expression" dxfId="1024" priority="2">
       <formula>$D$10="SaaS"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41617,7 +42525,7 @@
   </sheetPr>
   <dimension ref="B1:M75"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
@@ -42807,7 +43715,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="42.75">
+    <row r="54" spans="2:13" ht="41.45">
       <c r="B54" s="40" t="s">
         <v>275</v>
       </c>
@@ -43624,316 +44532,316 @@
     <mergeCell ref="I11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="968" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="1008" priority="313" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="967" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="1007" priority="314" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="966" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="1006" priority="315" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="965" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="304" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="964" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="305" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="963" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="1003" priority="306" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="962" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="265" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="961" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="1001" priority="266" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="960" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="267" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B75 B27 B10:B13 B45:B48 B52:B53 B55 B17:B25 B41:B43 L58:L59 B58:B70">
-    <cfRule type="cellIs" dxfId="959" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="999" priority="202" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="998" priority="203" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="957" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="997" priority="200" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="956" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="201" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="955" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="995" priority="198" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="954" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="994" priority="199" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="953" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="993" priority="196" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="952" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="992" priority="197" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="951" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="991" priority="194" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="950" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="195" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="949" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="989" priority="192" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="948" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="988" priority="193" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="cellIs" dxfId="947" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="987" priority="190" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="946" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="986" priority="191" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="945" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="985" priority="186" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="944" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="984" priority="187" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="943" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="983" priority="182" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="942" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="982" priority="183" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="941" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="981" priority="180" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="940" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="980" priority="181" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="939" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="979" priority="178" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="938" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="978" priority="179" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="cellIs" dxfId="937" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="977" priority="176" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="936" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="976" priority="177" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="935" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="975" priority="172" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="934" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="974" priority="173" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B34">
-    <cfRule type="cellIs" dxfId="933" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="973" priority="166" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="932" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="972" priority="167" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="931" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="971" priority="142" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="930" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="970" priority="143" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="929" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="969" priority="144" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="928" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="968" priority="139" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="927" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="967" priority="140" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="926" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="966" priority="141" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="925" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="965" priority="136" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="924" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="964" priority="137" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="923" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="963" priority="138" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:L25">
-    <cfRule type="cellIs" dxfId="922" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="962" priority="112" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="921" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="961" priority="113" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:L21">
-    <cfRule type="cellIs" dxfId="920" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="960" priority="84" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="919" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="959" priority="85" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="918" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="57" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="917" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="58" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="cellIs" dxfId="916" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="956" priority="49" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="915" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="955" priority="50" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="914" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="954" priority="45" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="913" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="953" priority="46" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="912" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="952" priority="41" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="911" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="951" priority="42" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="cellIs" dxfId="910" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="950" priority="39" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="909" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="949" priority="40" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="908" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="948" priority="23" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="907" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="947" priority="24" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="cellIs" dxfId="906" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="946" priority="21" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="905" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="945" priority="22" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="904" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="19" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="903" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="943" priority="20" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="902" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="942" priority="17" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="901" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="941" priority="18" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="900" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="940" priority="13" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="899" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="939" priority="14" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="898" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="938" priority="11" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="897" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="937" priority="12" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="cellIs" dxfId="896" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="936" priority="9" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="895" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="935" priority="10" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57">
-    <cfRule type="cellIs" dxfId="894" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="934" priority="5" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="893" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="933" priority="6" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="cellIs" dxfId="892" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="891" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="931" priority="4" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56">
-    <cfRule type="cellIs" dxfId="890" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="930" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="889" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="929" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43958,8 +44866,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="13.9"/>
@@ -45321,7 +46229,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="142.5">
+    <row r="55" spans="2:12" ht="138">
       <c r="B55" s="40" t="s">
         <v>275</v>
       </c>
@@ -45957,332 +46865,332 @@
   </mergeCells>
   <phoneticPr fontId="62" type="noConversion"/>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="888" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="928" priority="125" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="887" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="927" priority="126" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="886" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="127" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="885" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="925" priority="122" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="924" priority="123" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="883" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="923" priority="124" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="882" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="922" priority="119" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="881" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="921" priority="120" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="880" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="920" priority="121" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B16:B26 B9:B12 B39:B44 B51:B52 B65 B46 B54 B28:B31 B48:B49 B60:B62 L61">
-    <cfRule type="cellIs" dxfId="879" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="919" priority="117" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="918" priority="118" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="877" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="917" priority="115" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="916" priority="116" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="875" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="915" priority="107" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="874" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="914" priority="108" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="873" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="913" priority="109" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="872" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="912" priority="110" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="871" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="911" priority="89" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="870" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="910" priority="90" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="869" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="909" priority="83" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="868" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="908" priority="84" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="cellIs" dxfId="867" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="907" priority="81" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="906" priority="82" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="865" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="905" priority="79" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="904" priority="80" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="863" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="903" priority="71" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="862" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="72" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="901" priority="73" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="cellIs" dxfId="860" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="900" priority="68" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="859" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="899" priority="69" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="858" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="898" priority="70" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="857" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="897" priority="65" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="856" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="66" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="895" priority="67" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="854" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="894" priority="63" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="853" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="893" priority="64" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49 L54 L51">
-    <cfRule type="cellIs" dxfId="852" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="892" priority="59" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="851" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="891" priority="60" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L23">
-    <cfRule type="cellIs" dxfId="850" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="890" priority="55" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="849" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="889" priority="56" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="848" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="53" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="847" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="887" priority="54" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="cellIs" dxfId="846" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="886" priority="47" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="885" priority="48" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B66">
-    <cfRule type="cellIs" dxfId="844" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="43" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="883" priority="44" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="842" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="37" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="881" priority="38" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="cellIs" dxfId="840" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="880" priority="35" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="839" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="879" priority="36" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="838" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="33" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="837" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="877" priority="34" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="cellIs" dxfId="836" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="31" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="875" priority="32" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:B64">
-    <cfRule type="cellIs" dxfId="834" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="29" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="833" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="873" priority="30" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="cellIs" dxfId="832" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="872" priority="27" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="831" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="871" priority="28" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" dxfId="830" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="25" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="829" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="26" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53">
-    <cfRule type="cellIs" dxfId="828" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="23" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="827" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="867" priority="24" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="cellIs" dxfId="826" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="866" priority="21" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="825" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="865" priority="22" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="cellIs" dxfId="824" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="19" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="863" priority="20" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="cellIs" dxfId="822" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="862" priority="17" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="18" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="cellIs" dxfId="820" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="15" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:B59">
-    <cfRule type="cellIs" dxfId="818" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="858" priority="13" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="14" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="816" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="11" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="815" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="12" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="814" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="9" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="853" priority="10" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="812" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="7" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="811" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="8" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="810" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="850" priority="5" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="809" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="849" priority="6" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="808" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="807" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="847" priority="4" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" dxfId="806" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="805" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="845" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46311,8 +47219,8 @@
   </sheetPr>
   <dimension ref="A2:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="13.9"/>
@@ -46780,7 +47688,7 @@
       </c>
       <c r="L26" s="101"/>
     </row>
-    <row r="27" spans="2:12" ht="14.25">
+    <row r="27" spans="2:12">
       <c r="B27" s="40" t="s">
         <v>275</v>
       </c>
@@ -46815,7 +47723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="28.5">
+    <row r="28" spans="2:12" ht="27.6">
       <c r="B28" s="40" t="s">
         <v>275</v>
       </c>
@@ -46850,7 +47758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="28.5">
+    <row r="29" spans="2:12" ht="27.6">
       <c r="B29" s="40" t="s">
         <v>275</v>
       </c>
@@ -46885,7 +47793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="57">
+    <row r="30" spans="2:12" ht="55.15">
       <c r="B30" s="40" t="s">
         <v>275</v>
       </c>
@@ -46920,7 +47828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="42.75">
+    <row r="31" spans="2:12" ht="41.45">
       <c r="B31" s="40" t="s">
         <v>275</v>
       </c>
@@ -46928,11 +47836,11 @@
         <f t="shared" ref="C31:C41" si="0">ComAccess</f>
         <v>Workspace ONE Access</v>
       </c>
-      <c r="D31" s="107" t="str">
+      <c r="D31" s="106" t="str">
         <f t="shared" ref="D31:D41" si="1">AccessServerName</f>
         <v>access1.haramco.xyz</v>
       </c>
-      <c r="E31" s="86" t="str">
+      <c r="E31" s="179" t="str">
         <f t="shared" ref="E31:E41" si="2">AccessIP</f>
         <v>192.168.1.84</v>
       </c>
@@ -46958,7 +47866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="28.5">
+    <row r="32" spans="2:12" ht="27.6">
       <c r="B32" s="40" t="s">
         <v>275</v>
       </c>
@@ -46966,11 +47874,11 @@
         <f t="shared" si="0"/>
         <v>Workspace ONE Access</v>
       </c>
-      <c r="D32" s="107" t="str">
+      <c r="D32" s="106" t="str">
         <f t="shared" si="1"/>
         <v>access1.haramco.xyz</v>
       </c>
-      <c r="E32" s="86" t="str">
+      <c r="E32" s="179" t="str">
         <f t="shared" si="2"/>
         <v>192.168.1.84</v>
       </c>
@@ -46999,7 +47907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="42.75">
+    <row r="33" spans="1:12" ht="41.45">
       <c r="B33" s="40" t="s">
         <v>275</v>
       </c>
@@ -47007,11 +47915,11 @@
         <f t="shared" si="0"/>
         <v>Workspace ONE Access</v>
       </c>
-      <c r="D33" s="107" t="str">
+      <c r="D33" s="106" t="str">
         <f t="shared" si="1"/>
         <v>access1.haramco.xyz</v>
       </c>
-      <c r="E33" s="86" t="str">
+      <c r="E33" s="179" t="str">
         <f t="shared" si="2"/>
         <v>192.168.1.84</v>
       </c>
@@ -47040,7 +47948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.25">
+    <row r="34" spans="1:12">
       <c r="B34" s="40" t="s">
         <v>275</v>
       </c>
@@ -47048,11 +47956,11 @@
         <f t="shared" si="0"/>
         <v>Workspace ONE Access</v>
       </c>
-      <c r="D34" s="107" t="str">
+      <c r="D34" s="106" t="str">
         <f t="shared" si="1"/>
         <v>access1.haramco.xyz</v>
       </c>
-      <c r="E34" s="86" t="str">
+      <c r="E34" s="179" t="str">
         <f t="shared" si="2"/>
         <v>192.168.1.84</v>
       </c>
@@ -47081,7 +47989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="28.5">
+    <row r="35" spans="1:12" ht="27.6">
       <c r="B35" s="40" t="s">
         <v>275</v>
       </c>
@@ -47089,11 +47997,11 @@
         <f t="shared" si="0"/>
         <v>Workspace ONE Access</v>
       </c>
-      <c r="D35" s="107" t="str">
+      <c r="D35" s="106" t="str">
         <f t="shared" si="1"/>
         <v>access1.haramco.xyz</v>
       </c>
-      <c r="E35" s="86" t="str">
+      <c r="E35" s="179" t="str">
         <f t="shared" si="2"/>
         <v>192.168.1.84</v>
       </c>
@@ -47122,7 +48030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14.25">
+    <row r="36" spans="1:12">
       <c r="B36" s="40" t="s">
         <v>275</v>
       </c>
@@ -47130,11 +48038,11 @@
         <f t="shared" si="0"/>
         <v>Workspace ONE Access</v>
       </c>
-      <c r="D36" s="107" t="str">
+      <c r="D36" s="106" t="str">
         <f t="shared" si="1"/>
         <v>access1.haramco.xyz</v>
       </c>
-      <c r="E36" s="86" t="str">
+      <c r="E36" s="179" t="str">
         <f t="shared" si="2"/>
         <v>192.168.1.84</v>
       </c>
@@ -47161,7 +48069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14.25">
+    <row r="37" spans="1:12">
       <c r="B37" s="40" t="s">
         <v>44</v>
       </c>
@@ -47169,11 +48077,11 @@
         <f t="shared" si="0"/>
         <v>Workspace ONE Access</v>
       </c>
-      <c r="D37" s="107" t="str">
+      <c r="D37" s="106" t="str">
         <f t="shared" si="1"/>
         <v>access1.haramco.xyz</v>
       </c>
-      <c r="E37" s="86" t="str">
+      <c r="E37" s="179" t="str">
         <f t="shared" si="2"/>
         <v>192.168.1.84</v>
       </c>
@@ -47200,7 +48108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.25">
+    <row r="38" spans="1:12">
       <c r="B38" s="40" t="s">
         <v>275</v>
       </c>
@@ -47208,11 +48116,11 @@
         <f t="shared" si="0"/>
         <v>Workspace ONE Access</v>
       </c>
-      <c r="D38" s="107" t="str">
+      <c r="D38" s="106" t="str">
         <f t="shared" si="1"/>
         <v>access1.haramco.xyz</v>
       </c>
-      <c r="E38" s="86" t="str">
+      <c r="E38" s="179" t="str">
         <f t="shared" si="2"/>
         <v>192.168.1.84</v>
       </c>
@@ -47234,7 +48142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.25">
+    <row r="39" spans="1:12">
       <c r="B39" s="40" t="str">
         <f>IF(UsingWSONEAutoUpdate="Yes", "Pending", "N/A")</f>
         <v>N/A</v>
@@ -47243,11 +48151,11 @@
         <f t="shared" si="0"/>
         <v>Workspace ONE Access</v>
       </c>
-      <c r="D39" s="107" t="str">
+      <c r="D39" s="106" t="str">
         <f t="shared" si="1"/>
         <v>access1.haramco.xyz</v>
       </c>
-      <c r="E39" s="86" t="str">
+      <c r="E39" s="179" t="str">
         <f t="shared" si="2"/>
         <v>192.168.1.84</v>
       </c>
@@ -47277,11 +48185,11 @@
         <f t="shared" si="0"/>
         <v>Workspace ONE Access</v>
       </c>
-      <c r="D40" s="107" t="str">
+      <c r="D40" s="106" t="str">
         <f t="shared" si="1"/>
         <v>access1.haramco.xyz</v>
       </c>
-      <c r="E40" s="86" t="str">
+      <c r="E40" s="179" t="str">
         <f t="shared" si="2"/>
         <v>192.168.1.84</v>
       </c>
@@ -47312,11 +48220,11 @@
         <f t="shared" si="0"/>
         <v>Workspace ONE Access</v>
       </c>
-      <c r="D41" s="107" t="str">
+      <c r="D41" s="106" t="str">
         <f t="shared" si="1"/>
         <v>access1.haramco.xyz</v>
       </c>
-      <c r="E41" s="86" t="str">
+      <c r="E41" s="179" t="str">
         <f t="shared" si="2"/>
         <v>192.168.1.84</v>
       </c>
@@ -47338,7 +48246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14.25">
+    <row r="42" spans="1:12">
       <c r="B42" s="40" t="s">
         <v>275</v>
       </c>
@@ -47380,11 +48288,11 @@
         <f t="shared" ref="C43" si="3">ComAccess</f>
         <v>Workspace ONE Access</v>
       </c>
-      <c r="D43" s="107" t="str">
+      <c r="D43" s="106" t="str">
         <f t="shared" ref="D43" si="4">AccessServerName</f>
         <v>access1.haramco.xyz</v>
       </c>
-      <c r="E43" s="86" t="str">
+      <c r="E43" s="179" t="str">
         <f t="shared" ref="E43" si="5">AccessIP</f>
         <v>192.168.1.84</v>
       </c>
@@ -47449,320 +48357,320 @@
     <mergeCell ref="I4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="804" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="844" priority="198" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="199" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="200" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="801" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="841" priority="195" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="196" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="799" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="839" priority="197" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3 B27 B13 L6 L13 B35:B38 B21:B22 L25:L39 L8:L10 B15:B16 L41 B43 L43">
-    <cfRule type="cellIs" dxfId="798" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="193" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="797" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="837" priority="194" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="796" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="191" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="795" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="835" priority="192" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="794" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="181" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="182" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="792" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="187" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="188" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="790" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="183" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="789" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="829" priority="184" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="788" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="179" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="180" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:L10">
-    <cfRule type="cellIs" dxfId="786" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="165" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="785" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="166" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:L10">
-    <cfRule type="cellIs" dxfId="784" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="163" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="783" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="164" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="cellIs" dxfId="782" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="113" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="114" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="780" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="101" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="779" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="102" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="778" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="91" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="817" priority="92" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="776" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="73" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="74" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="774" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="71" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="72" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="772" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="67" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="771" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="811" priority="68" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="770" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="61" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="62" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="cellIs" dxfId="768" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="59" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="60" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="766" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="57" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="765" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="805" priority="58" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="cellIs" dxfId="764" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="55" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="763" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="56" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="762" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="49" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="761" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="50" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="760" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="39" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="759" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="40" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="758" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="37" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="797" priority="38" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="756" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="35" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="755" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="36" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="754" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="33" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="753" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="793" priority="34" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="752" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="31" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="32" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="750" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="29" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="749" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="30" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="748" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="27" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="747" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="28" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="746" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="25" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="26" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="744" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="23" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="743" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="783" priority="24" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="cellIs" dxfId="742" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="21" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="22" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="740" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="15" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="739" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="16" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="738" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="13" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="737" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="14" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="736" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="11" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="735" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="12" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="734" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="9" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="10" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40 B40">
-    <cfRule type="cellIs" dxfId="732" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="7" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="731" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="8" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42 L42">
-    <cfRule type="cellIs" dxfId="730" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="5" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="769" priority="6" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="cellIs" dxfId="728" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="4" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="cellIs" dxfId="726" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="725" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47804,8 +48712,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -47980,7 +48888,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="138">
+    <row r="9" spans="1:10" ht="142.5">
       <c r="A9" s="9"/>
       <c r="B9" s="40" t="s">
         <v>275</v>
@@ -48169,7 +49077,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27.6">
+    <row r="16" spans="1:10" ht="28.5">
       <c r="A16" s="9"/>
       <c r="B16" s="40" t="s">
         <v>275</v>
@@ -48179,7 +49087,7 @@
         <v>Devices on Internet or Wi-Fi</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>372</v>
+        <v>490</v>
       </c>
       <c r="E16" s="61"/>
       <c r="F16" s="61"/>
@@ -48206,7 +49114,7 @@
         <v>Devices on Internet or Wi-Fi</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E17" s="61"/>
       <c r="F17" s="61"/>
@@ -48217,7 +49125,7 @@
         <v>443</v>
       </c>
       <c r="I17" s="282" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J17" s="43">
         <v>8.1</v>
@@ -48233,7 +49141,7 @@
         <v>Devices on Internet or Wi-Fi</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E18" s="61"/>
       <c r="F18" s="61"/>
@@ -48244,7 +49152,7 @@
         <v>443</v>
       </c>
       <c r="I18" s="282" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J18" s="43">
         <v>8.1</v>
@@ -48287,7 +49195,7 @@
         <v>Devices on Internet or Wi-Fi</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E20" s="61"/>
       <c r="F20" s="61"/>
@@ -48298,7 +49206,7 @@
         <v>443</v>
       </c>
       <c r="I20" s="282" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J20" s="43"/>
     </row>
@@ -48323,7 +49231,7 @@
         <v>340</v>
       </c>
       <c r="I21" s="282" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J21" s="43">
         <v>6.4</v>
@@ -48350,13 +49258,13 @@
         <v>443</v>
       </c>
       <c r="I22" s="282" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J22" s="43">
         <v>8.1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="195">
+    <row r="23" spans="1:10" ht="199.5">
       <c r="A23" s="9"/>
       <c r="B23" s="40" t="s">
         <v>275</v>
@@ -48366,7 +49274,7 @@
         <v>Devices on Internet or Wi-Fi</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E23" s="61"/>
       <c r="F23" s="61"/>
@@ -48377,13 +49285,13 @@
         <v>443</v>
       </c>
       <c r="I23" s="282" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J23" s="43">
         <v>8.1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="361.15">
+    <row r="24" spans="1:10" ht="370.5">
       <c r="A24" s="9"/>
       <c r="B24" s="40" t="s">
         <v>275</v>
@@ -48393,7 +49301,7 @@
         <v>Devices on Internet or Wi-Fi</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E24" s="61"/>
       <c r="F24" s="61"/>
@@ -48404,7 +49312,7 @@
         <v>443</v>
       </c>
       <c r="I24" s="282" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J24" s="43">
         <v>9</v>
@@ -48421,7 +49329,7 @@
         <v>Devices on Internet or Wi-Fi</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E25" s="61"/>
       <c r="F25" s="61"/>
@@ -48432,7 +49340,7 @@
         <v>5262</v>
       </c>
       <c r="I25" s="282" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J25" s="43">
         <v>9</v>
@@ -48446,90 +49354,90 @@
     <mergeCell ref="B3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="B3 B21:B22 B6:B9 B14:B17">
-    <cfRule type="cellIs" dxfId="724" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="45" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="46" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="722" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="41" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="42" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B24">
-    <cfRule type="cellIs" dxfId="720" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="35" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="36" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="718" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="27" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="28" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="cellIs" dxfId="716" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="25" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="26" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="714" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="23" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="713" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="24" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="712" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="9" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="10" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="710" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="7" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="8" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="708" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="5" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="6" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="706" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="3" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="4" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="704" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="2" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48544,12 +49452,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -48558,7 +49460,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F49C4B67BC1294E920F467E0A8C92D5" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaa56b7ad0f1fc26519c68c66ba1d174">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2b358fc9-af72-40a7-8e6c-9aaef2ee7079" xmlns:ns4="809d60e0-4fd0-4844-9ff1-0d1c7b224338" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9387b71428f4258bb9e72fe3db28a4a1" ns3:_="" ns4:_="">
     <xsd:import namespace="2b358fc9-af72-40a7-8e6c-9aaef2ee7079"/>
@@ -48729,14 +49631,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7378C54E-2121-40E0-88A2-010BE6DF122D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5E56DF1-E1EC-43C5-A89A-8F89FBA174EE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5E56DF1-E1EC-43C5-A89A-8F89FBA174EE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DABB4B4A-54FD-4072-B56F-A68DCC17DAD2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DABB4B4A-54FD-4072-B56F-A68DCC17DAD2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7378C54E-2121-40E0-88A2-010BE6DF122D}"/>
 </file>